--- a/Data/wr_draft_capital_only.xlsx
+++ b/Data/wr_draft_capital_only.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="578">
   <si>
     <t>Unnamed: 0_level_0</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Adam Jennings</t>
   </si>
   <si>
-    <t>Adam Thielen</t>
-  </si>
-  <si>
     <t>Adrian Arrington</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Andre Johnson</t>
   </si>
   <si>
-    <t>Andre Roberts</t>
-  </si>
-  <si>
     <t>Andrew Hawkins</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Anquan Boldin</t>
   </si>
   <si>
-    <t>Anthony Armstrong</t>
-  </si>
-  <si>
     <t>Anthony Gonzalez</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>Cam Phillips</t>
   </si>
   <si>
-    <t>Cameron Batson</t>
-  </si>
-  <si>
     <t>Carlos Henderson</t>
   </si>
   <si>
@@ -317,12 +305,6 @@
     <t>Carlyle Holiday</t>
   </si>
   <si>
-    <t>Cecil Shorts</t>
-  </si>
-  <si>
-    <t>Chad Beebe</t>
-  </si>
-  <si>
     <t>Chad Hall</t>
   </si>
   <si>
@@ -374,9 +356,6 @@
     <t>Chris Henry</t>
   </si>
   <si>
-    <t>Chris Hogan</t>
-  </si>
-  <si>
     <t>Chris Lacy</t>
   </si>
   <si>
@@ -470,9 +449,6 @@
     <t>Damian Williams</t>
   </si>
   <si>
-    <t>Damion Ratley</t>
-  </si>
-  <si>
     <t>Damion Willis</t>
   </si>
   <si>
@@ -590,9 +566,6 @@
     <t>Derrick Williams</t>
   </si>
   <si>
-    <t>Derrick Willies</t>
-  </si>
-  <si>
     <t>Desean Jackson</t>
   </si>
   <si>
@@ -647,9 +620,6 @@
     <t>Dominique Zeigler</t>
   </si>
   <si>
-    <t>Donald Jones</t>
-  </si>
-  <si>
     <t>Donnie Avery</t>
   </si>
   <si>
@@ -782,9 +752,6 @@
     <t>Isaiah McKenzie</t>
   </si>
   <si>
-    <t>Isaiah Stanback</t>
-  </si>
-  <si>
     <t>JJ Arcega-Whiteside</t>
   </si>
   <si>
@@ -815,9 +782,6 @@
     <t>Jamaar Taylor</t>
   </si>
   <si>
-    <t>Jamal Jones</t>
-  </si>
-  <si>
     <t>James Gardner</t>
   </si>
   <si>
@@ -896,9 +860,6 @@
     <t>Jermaine Kearse</t>
   </si>
   <si>
-    <t>Jerome Simpson</t>
-  </si>
-  <si>
     <t>Jerrel Jernigan</t>
   </si>
   <si>
@@ -908,12 +869,6 @@
     <t>Jesse Holley</t>
   </si>
   <si>
-    <t>Joe Morgan</t>
-  </si>
-  <si>
-    <t>Joe Webb</t>
-  </si>
-  <si>
     <t>John Broussard</t>
   </si>
   <si>
@@ -935,9 +890,6 @@
     <t>Johnny Holton</t>
   </si>
   <si>
-    <t>Johnny Knox</t>
-  </si>
-  <si>
     <t>Jonathan Baldwin</t>
   </si>
   <si>
@@ -1007,9 +959,6 @@
     <t>JuJu Smith-Schuster</t>
   </si>
   <si>
-    <t>Julian Edelman</t>
-  </si>
-  <si>
     <t>Julio Jones</t>
   </si>
   <si>
@@ -1073,9 +1022,6 @@
     <t>Keenan Howry</t>
   </si>
   <si>
-    <t>Keith Kirkwood</t>
-  </si>
-  <si>
     <t>Keith Mumphery</t>
   </si>
   <si>
@@ -1211,9 +1157,6 @@
     <t>Malcom Floyd</t>
   </si>
   <si>
-    <t>Malik Turner</t>
-  </si>
-  <si>
     <t>Manuel Johnson</t>
   </si>
   <si>
@@ -1262,9 +1205,6 @@
     <t>Marqise Lee</t>
   </si>
   <si>
-    <t>Marques Colston</t>
-  </si>
-  <si>
     <t>Marques Hagans</t>
   </si>
   <si>
@@ -1286,12 +1226,6 @@
     <t>Marvin Jones</t>
   </si>
   <si>
-    <t>Matt Jones</t>
-  </si>
-  <si>
-    <t>Matt Slater</t>
-  </si>
-  <si>
     <t>Matt Willis</t>
   </si>
   <si>
@@ -1337,9 +1271,6 @@
     <t>Michael Thomas</t>
   </si>
   <si>
-    <t>Micheal Spurlock</t>
-  </si>
-  <si>
     <t>Mike Evans</t>
   </si>
   <si>
@@ -1376,18 +1307,9 @@
     <t>Nate Burleson</t>
   </si>
   <si>
-    <t>Nate Hughes</t>
-  </si>
-  <si>
-    <t>Nate Washington</t>
-  </si>
-  <si>
     <t>Nelson Agholor</t>
   </si>
   <si>
-    <t>Nick Miller</t>
-  </si>
-  <si>
     <t>Nick Toon</t>
   </si>
   <si>
@@ -1784,9 +1706,6 @@
     <t>Tyler Lockett</t>
   </si>
   <si>
-    <t>Tyler Murphy</t>
-  </si>
-  <si>
     <t>Tyre Brady</t>
   </si>
   <si>
@@ -1802,16 +1721,10 @@
     <t>Victor Bolden</t>
   </si>
   <si>
-    <t>Victor cruz</t>
-  </si>
-  <si>
     <t>Vince Mayle</t>
   </si>
   <si>
     <t>Vincent Brown</t>
-  </si>
-  <si>
-    <t>Vincent Jackson</t>
   </si>
   <si>
     <t>Wallace Wright</t>
@@ -2207,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D608"/>
+  <dimension ref="A1:D579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2224,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,12 +2149,12 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2255,7 +2168,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2269,7 +2182,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2283,7 +2196,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2297,7 +2210,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2325,7 +2238,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2339,7 +2252,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2353,7 +2266,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -2367,27 +2280,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="D12">
-        <v>2.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>155</v>
+        <v>528</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2395,7 +2308,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>557</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2409,13 +2322,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2423,13 +2336,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2437,7 +2350,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2446,12 +2359,12 @@
         <v>300</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -2460,88 +2373,88 @@
         <v>300</v>
       </c>
       <c r="D18">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>514</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>1.666666666666667</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>1.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2549,55 +2462,55 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D26">
-        <v>2.714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>248</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="D27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>262</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2605,27 +2518,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>409</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>598</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2633,27 +2546,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>534</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="D31">
-        <v>2.714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>230</v>
+        <v>522</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2661,13 +2574,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2675,7 +2588,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2689,13 +2602,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2703,27 +2616,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2731,7 +2644,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>577</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -2745,27 +2658,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>4.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>545</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2773,13 +2686,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2787,13 +2700,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>503</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2801,7 +2714,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>291</v>
+        <v>549</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -2815,13 +2728,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>13</v>
+        <v>504</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2829,13 +2742,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2843,7 +2756,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>578</v>
+        <v>460</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -2857,27 +2770,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>532</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2885,7 +2798,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>483</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -2899,27 +2812,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2927,27 +2840,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2955,13 +2868,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>370</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2969,21 +2882,21 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D55">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -2997,13 +2910,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3011,13 +2924,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3025,7 +2938,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -3039,7 +2952,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -3053,21 +2966,21 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>7</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -3081,13 +2994,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>404</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3095,27 +3008,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3123,97 +3036,97 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3.9230769230769229</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D69">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>18</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="D70">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D71">
-        <v>3.9230769230769229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>117</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3221,27 +3134,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3249,13 +3162,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>465</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3269,35 +3182,35 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="D76">
-        <v>1.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>432</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.42857142857142849</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3305,13 +3218,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3319,27 +3232,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="D80">
-        <v>0.42857142857142849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3347,13 +3260,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3361,13 +3274,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>343</v>
+        <v>420</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3375,13 +3288,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3389,35 +3302,35 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -3431,35 +3344,35 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>148</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D88">
-        <v>4.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>555</v>
+        <v>223</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>517</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -3473,7 +3386,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>527</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -3487,13 +3400,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3501,13 +3414,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3515,13 +3428,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>61</v>
+        <v>476</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3529,27 +3442,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>274</v>
+        <v>381</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="D95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>526</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3557,13 +3470,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3571,13 +3484,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3585,13 +3498,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3599,13 +3512,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>499</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3613,13 +3526,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3627,13 +3540,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3641,13 +3554,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3655,13 +3568,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>448</v>
+        <v>296</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3669,27 +3582,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>261</v>
+        <v>478</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3697,13 +3610,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>425</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3711,13 +3624,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>132</v>
+        <v>501</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3725,7 +3638,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>92</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -3739,13 +3652,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3753,21 +3666,21 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>501</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
       <c r="C111">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -3781,13 +3694,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>74</v>
+        <v>523</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3795,13 +3708,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
       <c r="C114">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3809,13 +3722,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>529</v>
+        <v>429</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3823,13 +3736,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3837,41 +3750,41 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>463</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>294</v>
+        <v>482</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3879,13 +3792,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>552</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
       <c r="C120">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3893,13 +3806,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
       <c r="C121">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3907,27 +3820,27 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
       <c r="C123">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3935,41 +3848,41 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>295</v>
+        <v>525</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="D124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>505</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
       <c r="C125">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3977,13 +3890,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>371</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
       <c r="C127">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3991,13 +3904,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>472</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4005,13 +3918,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D129">
         <v>0.33333333333333331</v>
@@ -4019,69 +3932,69 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
       <c r="C130">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>554</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
       <c r="C131">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>75</v>
+        <v>527</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
       <c r="C132">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>126</v>
+        <v>568</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
       <c r="C133">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -4089,13 +4002,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>72</v>
+        <v>515</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
       <c r="C135">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -4103,41 +4016,41 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>507</v>
+        <v>118</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="D136">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>549</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
       </c>
       <c r="C137">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
       </c>
       <c r="C138">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -4145,35 +4058,35 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
       <c r="C139">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>597</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
       </c>
       <c r="C140">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -4187,27 +4100,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>544</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
       </c>
       <c r="C142">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>124</v>
+        <v>524</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
       </c>
       <c r="C143">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4215,13 +4128,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4229,13 +4142,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
       <c r="C145">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -4243,13 +4156,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>540</v>
+        <v>311</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
       </c>
       <c r="C146">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4257,13 +4170,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4271,13 +4184,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -4285,41 +4198,41 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>184</v>
+        <v>371</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="D150">
-        <v>9.0909090909090912E-2</v>
+        <v>2.833333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>553</v>
+        <v>91</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -4327,13 +4240,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -4341,13 +4254,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>411</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4355,7 +4268,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4369,13 +4282,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>589</v>
+        <v>225</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -4383,13 +4296,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>51</v>
+        <v>533</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -4397,41 +4310,41 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D157">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="D158">
-        <v>2.833333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4439,13 +4352,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>129</v>
+        <v>543</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4453,27 +4366,27 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -4481,13 +4394,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4495,55 +4408,55 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>562</v>
+        <v>474</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>12</v>
+        <v>574</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D166">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4551,13 +4464,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>572</v>
+        <v>436</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4565,27 +4478,27 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>361</v>
+        <v>239</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D169">
-        <v>4.8571428571428568</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4593,13 +4506,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>408</v>
+        <v>253</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4607,41 +4520,41 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>497</v>
+        <v>188</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D172">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>603</v>
+        <v>511</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>266</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4649,13 +4562,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>449</v>
+        <v>279</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4663,13 +4576,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>459</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4677,55 +4590,55 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D177">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>271</v>
+        <v>411</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4733,13 +4646,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>539</v>
+        <v>52</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4747,13 +4660,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4761,13 +4674,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4775,27 +4688,27 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4803,13 +4716,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>524</v>
+        <v>407</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4817,41 +4730,41 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D187">
-        <v>1.166666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>434</v>
+        <v>170</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D188">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4859,27 +4772,27 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4887,13 +4800,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>99</v>
+        <v>554</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -4901,27 +4814,27 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D193">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4929,13 +4842,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>430</v>
+        <v>145</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4943,13 +4856,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>382</v>
+        <v>171</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -4957,13 +4870,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -4971,41 +4884,41 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>0.16666666666666671</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>256</v>
+        <v>345</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="D199">
-        <v>3.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>239</v>
+        <v>406</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5013,27 +4926,27 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>583</v>
+        <v>241</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1.1111111111111109</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>596</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5041,13 +4954,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5055,7 +4968,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -5069,7 +4982,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5083,27 +4996,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1.555555555555556</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5111,27 +5024,27 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D208">
-        <v>0.16666666666666671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>366</v>
+        <v>163</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -5139,13 +5052,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>429</v>
+        <v>161</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -5153,27 +5066,27 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="D211">
-        <v>1.1111111111111109</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5181,13 +5094,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43</v>
+        <v>541</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5195,27 +5108,27 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>215</v>
+        <v>508</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5223,27 +5136,27 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D216">
-        <v>1.555555555555556</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>268</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5251,13 +5164,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5265,13 +5178,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -5279,13 +5192,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>169</v>
+        <v>562</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -5293,27 +5206,27 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>176</v>
+        <v>500</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="D221">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -5321,7 +5234,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>570</v>
+        <v>419</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5335,49 +5248,49 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="D224">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>536</v>
+        <v>236</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="D226">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5391,21 +5304,21 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>373</v>
+        <v>107</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
       </c>
       <c r="C228">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -5419,13 +5332,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>591</v>
+        <v>263</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
       </c>
       <c r="C230">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -5433,13 +5346,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>523</v>
+        <v>256</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
       </c>
       <c r="C231">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -5447,13 +5360,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
       </c>
       <c r="C232">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -5461,13 +5374,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>442</v>
+        <v>563</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
       </c>
       <c r="C233">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -5475,49 +5388,49 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
       </c>
       <c r="C234">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
       </c>
       <c r="C235">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D235">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
       </c>
       <c r="C236">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>560</v>
+        <v>454</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
@@ -5531,27 +5444,27 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>113</v>
+        <v>464</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
       </c>
       <c r="C238">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="D238">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>3</v>
+        <v>466</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
       </c>
       <c r="C239">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -5559,13 +5472,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>282</v>
+        <v>571</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
       </c>
       <c r="C240">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -5573,13 +5486,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>275</v>
+        <v>514</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
       </c>
       <c r="C241">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -5587,13 +5500,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
       </c>
       <c r="C242">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -5601,13 +5514,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>592</v>
+        <v>132</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
       </c>
       <c r="C243">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -5615,27 +5528,27 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="B244" t="s">
         <v>245</v>
       </c>
       <c r="C244">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D244">
-        <v>1.285714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
       </c>
       <c r="C245">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -5643,24 +5556,24 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>168</v>
+        <v>545</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
       </c>
       <c r="C246">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="D246">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C247">
         <v>300</v>
@@ -5671,13 +5584,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C248">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -5685,13 +5598,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="B249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C249">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -5699,13 +5612,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C250">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -5713,13 +5626,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -5727,13 +5640,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>543</v>
+        <v>168</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C252">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -5741,27 +5654,27 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="B253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C253">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>139</v>
+        <v>521</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C254">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -5769,13 +5682,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -5783,27 +5696,27 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C256">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>574</v>
+        <v>359</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -5811,13 +5724,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>573</v>
+        <v>183</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
       </c>
       <c r="C258">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -5825,13 +5738,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>595</v>
+        <v>293</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
       </c>
       <c r="C259">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -5839,7 +5752,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
@@ -5853,13 +5766,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
       </c>
       <c r="C261">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -5867,27 +5780,27 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
       </c>
       <c r="C262">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>558</v>
+        <v>101</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
       </c>
       <c r="C263">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -5895,13 +5808,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
       </c>
       <c r="C264">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -5909,27 +5822,27 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>136</v>
+        <v>507</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
       </c>
       <c r="C265">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="D265">
-        <v>0.44444444444444442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>550</v>
+        <v>354</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
       </c>
       <c r="C266">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -5937,13 +5850,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
       </c>
       <c r="C267">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -5951,27 +5864,27 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
       </c>
       <c r="C268">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="D268">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>381</v>
+        <v>546</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
       </c>
       <c r="C269">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -5979,13 +5892,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
       </c>
       <c r="C270">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -5993,13 +5906,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>314</v>
+        <v>469</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
       </c>
       <c r="C271">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -6007,13 +5920,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B272" t="s">
         <v>272</v>
       </c>
       <c r="C272">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -6021,13 +5934,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B273" t="s">
         <v>273</v>
       </c>
       <c r="C273">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -6035,27 +5948,27 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>390</v>
+        <v>198</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
       </c>
       <c r="C274">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D274">
-        <v>2.5</v>
+        <v>1.444444444444444</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="B275" t="s">
         <v>275</v>
       </c>
       <c r="C275">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -6063,27 +5976,27 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="B276" t="s">
         <v>276</v>
       </c>
       <c r="C276">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>535</v>
+        <v>258</v>
       </c>
       <c r="B277" t="s">
         <v>277</v>
       </c>
       <c r="C277">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -6091,21 +6004,21 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>376</v>
+        <v>46</v>
       </c>
       <c r="B278" t="s">
         <v>278</v>
       </c>
       <c r="C278">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>480</v>
+        <v>212</v>
       </c>
       <c r="B279" t="s">
         <v>279</v>
@@ -6119,13 +6032,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>569</v>
+        <v>117</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
       </c>
       <c r="C280">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -6133,13 +6046,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>575</v>
+        <v>486</v>
       </c>
       <c r="B281" t="s">
         <v>281</v>
       </c>
       <c r="C281">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -6147,7 +6060,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="B282" t="s">
         <v>282</v>
@@ -6161,13 +6074,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
       </c>
       <c r="C283">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6175,13 +6088,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>307</v>
+        <v>556</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
       </c>
       <c r="C284">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -6189,13 +6102,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="B285" t="s">
         <v>285</v>
       </c>
       <c r="C285">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -6203,27 +6116,27 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="B286" t="s">
         <v>286</v>
       </c>
       <c r="C286">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="D286">
-        <v>1.444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B287" t="s">
         <v>287</v>
       </c>
       <c r="C287">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -6231,27 +6144,27 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="B288" t="s">
         <v>288</v>
       </c>
       <c r="C288">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="D288">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="B289" t="s">
         <v>289</v>
       </c>
       <c r="C289">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -6259,13 +6172,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>277</v>
+        <v>456</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
       </c>
       <c r="C290">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -6273,13 +6186,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="B291" t="s">
         <v>291</v>
       </c>
       <c r="C291">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D291">
         <v>0.5</v>
@@ -6287,7 +6200,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="B292" t="s">
         <v>292</v>
@@ -6301,13 +6214,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>302</v>
+        <v>434</v>
       </c>
       <c r="B293" t="s">
         <v>293</v>
       </c>
       <c r="C293">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -6315,13 +6228,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B294" t="s">
         <v>294</v>
       </c>
       <c r="C294">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -6329,13 +6242,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="B295" t="s">
         <v>295</v>
       </c>
       <c r="C295">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -6343,13 +6256,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>509</v>
+        <v>284</v>
       </c>
       <c r="B296" t="s">
         <v>296</v>
       </c>
       <c r="C296">
-        <v>9</v>
+        <v>244</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -6357,21 +6270,21 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B297" t="s">
         <v>297</v>
       </c>
       <c r="C297">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="B298" t="s">
         <v>298</v>
@@ -6385,13 +6298,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>585</v>
+        <v>329</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
       </c>
       <c r="C299">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -6399,13 +6312,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="B300" t="s">
         <v>300</v>
       </c>
       <c r="C300">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -6419,7 +6332,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -6427,27 +6340,27 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="B302" t="s">
         <v>302</v>
       </c>
       <c r="C302">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="B303" t="s">
         <v>303</v>
       </c>
       <c r="C303">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -6455,13 +6368,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>39</v>
+        <v>471</v>
       </c>
       <c r="B304" t="s">
         <v>304</v>
       </c>
       <c r="C304">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -6469,13 +6382,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B305" t="s">
         <v>305</v>
       </c>
       <c r="C305">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -6483,13 +6396,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B306" t="s">
         <v>306</v>
       </c>
       <c r="C306">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -6497,21 +6410,21 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="B307" t="s">
         <v>307</v>
       </c>
       <c r="C307">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="D307">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="B308" t="s">
         <v>308</v>
@@ -6525,41 +6438,41 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="B309" t="s">
         <v>309</v>
       </c>
       <c r="C309">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B310" t="s">
         <v>310</v>
       </c>
       <c r="C310">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>4.5555555555555554</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="B311" t="s">
         <v>311</v>
       </c>
       <c r="C311">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -6567,13 +6480,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B312" t="s">
         <v>312</v>
       </c>
       <c r="C312">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -6581,27 +6494,27 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B313" t="s">
         <v>313</v>
       </c>
       <c r="C313">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B314" t="s">
         <v>314</v>
       </c>
       <c r="C314">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -6609,13 +6522,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="B315" t="s">
         <v>315</v>
       </c>
       <c r="C315">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -6623,13 +6536,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="B316" t="s">
         <v>316</v>
       </c>
       <c r="C316">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -6637,13 +6550,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>470</v>
+        <v>338</v>
       </c>
       <c r="B317" t="s">
         <v>317</v>
       </c>
       <c r="C317">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -6651,13 +6564,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>331</v>
+        <v>513</v>
       </c>
       <c r="B318" t="s">
         <v>318</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -6665,13 +6578,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B319" t="s">
         <v>319</v>
       </c>
       <c r="C319">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -6679,41 +6592,41 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>494</v>
+        <v>246</v>
       </c>
       <c r="B320" t="s">
         <v>320</v>
       </c>
       <c r="C320">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="B321" t="s">
         <v>321</v>
       </c>
       <c r="C321">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
         <v>322</v>
       </c>
       <c r="C322">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -6721,13 +6634,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="B323" t="s">
         <v>323</v>
       </c>
       <c r="C323">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -6735,13 +6648,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>565</v>
+        <v>50</v>
       </c>
       <c r="B324" t="s">
         <v>324</v>
       </c>
       <c r="C324">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -6749,69 +6662,69 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="B325" t="s">
         <v>325</v>
       </c>
       <c r="C325">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="D325">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>191</v>
+        <v>450</v>
       </c>
       <c r="B326" t="s">
         <v>326</v>
       </c>
       <c r="C326">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="D326">
-        <v>1.545454545454545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>286</v>
+        <v>551</v>
       </c>
       <c r="B327" t="s">
         <v>327</v>
       </c>
       <c r="C327">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D327">
-        <v>4.5555555555555554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B328" t="s">
         <v>328</v>
       </c>
       <c r="C328">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="B329" t="s">
         <v>329</v>
       </c>
       <c r="C329">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -6819,27 +6732,27 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="B330" t="s">
         <v>330</v>
       </c>
       <c r="C330">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="D330">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="B331" t="s">
         <v>331</v>
       </c>
       <c r="C331">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -6847,13 +6760,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>15</v>
+        <v>517</v>
       </c>
       <c r="B332" t="s">
         <v>332</v>
       </c>
       <c r="C332">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -6861,13 +6774,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>422</v>
+        <v>23</v>
       </c>
       <c r="B333" t="s">
         <v>333</v>
       </c>
       <c r="C333">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -6875,27 +6788,27 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B334" t="s">
         <v>334</v>
       </c>
       <c r="C334">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D334">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="B335" t="s">
         <v>335</v>
       </c>
       <c r="C335">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -6903,13 +6816,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>416</v>
+        <v>36</v>
       </c>
       <c r="B336" t="s">
         <v>336</v>
       </c>
       <c r="C336">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -6917,7 +6830,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="B337" t="s">
         <v>337</v>
@@ -6926,32 +6839,32 @@
         <v>300</v>
       </c>
       <c r="D337">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="B338" t="s">
         <v>338</v>
       </c>
       <c r="C338">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="D338">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B339" t="s">
         <v>339</v>
       </c>
       <c r="C339">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -6959,49 +6872,49 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="B340" t="s">
         <v>340</v>
       </c>
       <c r="C340">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>50</v>
+        <v>477</v>
       </c>
       <c r="B341" t="s">
         <v>341</v>
       </c>
       <c r="C341">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>588</v>
+        <v>327</v>
       </c>
       <c r="B342" t="s">
         <v>342</v>
       </c>
       <c r="C342">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B343" t="s">
         <v>343</v>
@@ -7015,13 +6928,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>580</v>
+        <v>292</v>
       </c>
       <c r="B344" t="s">
         <v>344</v>
       </c>
       <c r="C344">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -7029,41 +6942,41 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="B345" t="s">
         <v>345</v>
       </c>
       <c r="C345">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D345">
-        <v>2.714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="B346" t="s">
         <v>346</v>
       </c>
       <c r="C346">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="B347" t="s">
         <v>347</v>
       </c>
       <c r="C347">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -7071,13 +6984,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="B348" t="s">
         <v>348</v>
       </c>
       <c r="C348">
-        <v>300</v>
+        <v>123</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -7085,13 +6998,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="B349" t="s">
         <v>349</v>
       </c>
       <c r="C349">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -7099,13 +7012,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>546</v>
+        <v>380</v>
       </c>
       <c r="B350" t="s">
         <v>350</v>
       </c>
       <c r="C350">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -7113,41 +7026,41 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B351" t="s">
         <v>351</v>
       </c>
       <c r="C351">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="D351">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B352" t="s">
         <v>352</v>
       </c>
       <c r="C352">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D352">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>587</v>
+        <v>274</v>
       </c>
       <c r="B353" t="s">
         <v>353</v>
       </c>
       <c r="C353">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -7155,13 +7068,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="B354" t="s">
         <v>354</v>
       </c>
       <c r="C354">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -7169,13 +7082,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="B355" t="s">
         <v>355</v>
       </c>
       <c r="C355">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -7183,83 +7096,83 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="B356" t="s">
         <v>356</v>
       </c>
       <c r="C356">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="D356">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B357" t="s">
         <v>357</v>
       </c>
       <c r="C357">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="B358" t="s">
         <v>358</v>
       </c>
       <c r="C358">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D358">
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="B359" t="s">
         <v>359</v>
       </c>
       <c r="C359">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>348</v>
+        <v>59</v>
       </c>
       <c r="B360" t="s">
         <v>360</v>
       </c>
       <c r="C360">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="D360">
-        <v>0.14285714285714279</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>513</v>
+        <v>156</v>
       </c>
       <c r="B361" t="s">
         <v>361</v>
       </c>
       <c r="C361">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -7267,13 +7180,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B362" t="s">
         <v>362</v>
       </c>
       <c r="C362">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -7281,41 +7194,41 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="B363" t="s">
         <v>363</v>
       </c>
       <c r="C363">
-        <v>300</v>
+        <v>13</v>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B364" t="s">
         <v>364</v>
       </c>
       <c r="C364">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="D364">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="B365" t="s">
         <v>365</v>
       </c>
       <c r="C365">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -7323,13 +7236,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="B366" t="s">
         <v>366</v>
       </c>
       <c r="C366">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -7337,7 +7250,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>181</v>
+        <v>532</v>
       </c>
       <c r="B367" t="s">
         <v>367</v>
@@ -7351,13 +7264,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="B368" t="s">
         <v>368</v>
       </c>
       <c r="C368">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -7365,27 +7278,27 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B369" t="s">
         <v>369</v>
       </c>
       <c r="C369">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D369">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="B370" t="s">
         <v>370</v>
       </c>
       <c r="C370">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -7393,7 +7306,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="B371" t="s">
         <v>371</v>
@@ -7407,13 +7320,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>276</v>
+        <v>472</v>
       </c>
       <c r="B372" t="s">
         <v>372</v>
       </c>
       <c r="C372">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -7421,13 +7334,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="B373" t="s">
         <v>373</v>
       </c>
       <c r="C373">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -7435,13 +7348,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="B374" t="s">
         <v>374</v>
       </c>
       <c r="C374">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -7449,7 +7362,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B375" t="s">
         <v>375</v>
@@ -7458,18 +7371,18 @@
         <v>300</v>
       </c>
       <c r="D375">
-        <v>0.7</v>
+        <v>0.16666666666666671</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="B376" t="s">
         <v>376</v>
       </c>
       <c r="C376">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -7477,13 +7390,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="B377" t="s">
         <v>377</v>
       </c>
       <c r="C377">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -7491,27 +7404,27 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="B378" t="s">
         <v>378</v>
       </c>
       <c r="C378">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D378">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>164</v>
+        <v>459</v>
       </c>
       <c r="B379" t="s">
         <v>379</v>
       </c>
       <c r="C379">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -7519,13 +7432,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>309</v>
+        <v>451</v>
       </c>
       <c r="B380" t="s">
         <v>380</v>
       </c>
       <c r="C380">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -7533,27 +7446,27 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B381" t="s">
         <v>381</v>
       </c>
       <c r="C381">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="B382" t="s">
         <v>382</v>
       </c>
       <c r="C382">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -7561,13 +7474,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="B383" t="s">
         <v>383</v>
       </c>
       <c r="C383">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -7575,27 +7488,27 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>464</v>
+        <v>159</v>
       </c>
       <c r="B384" t="s">
         <v>384</v>
       </c>
       <c r="C384">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>0.42857142857142849</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>561</v>
+        <v>76</v>
       </c>
       <c r="B385" t="s">
         <v>385</v>
       </c>
       <c r="C385">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -7603,27 +7516,27 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="B386" t="s">
         <v>386</v>
       </c>
       <c r="C386">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="B387" t="s">
         <v>387</v>
       </c>
       <c r="C387">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -7631,13 +7544,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B388" t="s">
         <v>388</v>
       </c>
       <c r="C388">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -7645,13 +7558,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="B389" t="s">
         <v>389</v>
       </c>
       <c r="C389">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -7659,13 +7572,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>495</v>
+        <v>209</v>
       </c>
       <c r="B390" t="s">
         <v>390</v>
       </c>
       <c r="C390">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -7673,13 +7586,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="B391" t="s">
         <v>391</v>
       </c>
       <c r="C391">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -7687,13 +7600,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>462</v>
+        <v>96</v>
       </c>
       <c r="B392" t="s">
         <v>392</v>
       </c>
       <c r="C392">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -7701,27 +7614,27 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="B393" t="s">
         <v>393</v>
       </c>
       <c r="C393">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="D393">
-        <v>0.16666666666666671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B394" t="s">
         <v>394</v>
       </c>
       <c r="C394">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -7729,13 +7642,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>192</v>
+        <v>576</v>
       </c>
       <c r="B395" t="s">
         <v>395</v>
       </c>
       <c r="C395">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -7743,27 +7656,27 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>534</v>
+        <v>333</v>
       </c>
       <c r="B396" t="s">
         <v>396</v>
       </c>
       <c r="C396">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="B397" t="s">
         <v>397</v>
       </c>
       <c r="C397">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -7771,21 +7684,21 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>482</v>
+        <v>290</v>
       </c>
       <c r="B398" t="s">
         <v>398</v>
       </c>
       <c r="C398">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="B399" t="s">
         <v>399</v>
@@ -7799,13 +7712,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>68</v>
+        <v>422</v>
       </c>
       <c r="B400" t="s">
         <v>400</v>
       </c>
       <c r="C400">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -7813,13 +7726,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="B401" t="s">
         <v>401</v>
       </c>
       <c r="C401">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -7827,13 +7740,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="B402" t="s">
         <v>402</v>
       </c>
       <c r="C402">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -7841,27 +7754,27 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>167</v>
+        <v>572</v>
       </c>
       <c r="B403" t="s">
         <v>403</v>
       </c>
       <c r="C403">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D403">
-        <v>0.42857142857142849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="B404" t="s">
         <v>404</v>
       </c>
       <c r="C404">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -7869,27 +7782,27 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="B405" t="s">
         <v>405</v>
       </c>
       <c r="C405">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="D405">
-        <v>0.14285714285714279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="B406" t="s">
         <v>406</v>
       </c>
       <c r="C406">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -7897,13 +7810,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>189</v>
+        <v>462</v>
       </c>
       <c r="B407" t="s">
         <v>407</v>
       </c>
       <c r="C407">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -7911,69 +7824,69 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="B408" t="s">
         <v>408</v>
       </c>
       <c r="C408">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D408">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B409" t="s">
         <v>409</v>
       </c>
       <c r="C409">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B410" t="s">
         <v>410</v>
       </c>
       <c r="C410">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>96</v>
+        <v>519</v>
       </c>
       <c r="B411" t="s">
         <v>411</v>
       </c>
       <c r="C411">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="D411">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B412" t="s">
         <v>412</v>
       </c>
       <c r="C412">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -7981,41 +7894,41 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>340</v>
+        <v>444</v>
       </c>
       <c r="B413" t="s">
         <v>413</v>
       </c>
       <c r="C413">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>541</v>
+        <v>378</v>
       </c>
       <c r="B414" t="s">
         <v>414</v>
       </c>
       <c r="C414">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>605</v>
+        <v>162</v>
       </c>
       <c r="B415" t="s">
         <v>415</v>
       </c>
       <c r="C415">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -8023,69 +7936,69 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="B416" t="s">
         <v>416</v>
       </c>
       <c r="C416">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="D416">
-        <v>0.14285714285714279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>386</v>
+        <v>187</v>
       </c>
       <c r="B417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C417">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D417">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="B418" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C418">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="D418">
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="B419" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C419">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D419">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="B420" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C420">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -8093,27 +8006,27 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="B421" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C421">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>445</v>
+        <v>564</v>
       </c>
       <c r="B422" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C422">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -8121,13 +8034,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="B423" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C423">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -8135,27 +8048,27 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="B424" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C424">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>601</v>
+        <v>318</v>
       </c>
       <c r="B425" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C425">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -8163,13 +8076,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B426" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C426">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -8177,10 +8090,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B427" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C427">
         <v>300</v>
@@ -8191,125 +8104,125 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>378</v>
+        <v>22</v>
       </c>
       <c r="B428" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C428">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>0.36363636363636359</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>485</v>
+        <v>410</v>
       </c>
       <c r="B429" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C429">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="B430" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C430">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D430">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="B431" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C431">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>329</v>
+        <v>463</v>
       </c>
       <c r="B432" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C432">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="D432">
-        <v>0.14285714285714279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B433" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C433">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="D433">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="B434" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C434">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="B435" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C435">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="D435">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B436" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C436">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -8317,27 +8230,27 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="B437" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C437">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D437">
-        <v>3.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>170</v>
+        <v>313</v>
       </c>
       <c r="B438" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C438">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -8345,27 +8258,27 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B439" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C439">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D439">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>451</v>
+        <v>152</v>
       </c>
       <c r="B440" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C440">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D440">
         <v>0</v>
@@ -8373,41 +8286,41 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>202</v>
+        <v>372</v>
       </c>
       <c r="B441" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C441">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D441">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="B442" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C442">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B443" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C443">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -8415,41 +8328,41 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B444" t="s">
         <v>441</v>
       </c>
       <c r="C444">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D444">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>593</v>
+        <v>197</v>
       </c>
       <c r="B445" t="s">
         <v>442</v>
       </c>
       <c r="C445">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="B446" t="s">
         <v>443</v>
       </c>
       <c r="C446">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -8457,21 +8370,21 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="B447" t="s">
         <v>444</v>
       </c>
       <c r="C447">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D447">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="B448" t="s">
         <v>445</v>
@@ -8485,13 +8398,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>604</v>
+        <v>385</v>
       </c>
       <c r="B449" t="s">
         <v>446</v>
       </c>
       <c r="C449">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -8499,7 +8412,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B450" t="s">
         <v>447</v>
@@ -8513,27 +8426,27 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="B451" t="s">
         <v>448</v>
       </c>
       <c r="C451">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="D451">
-        <v>0.36363636363636359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="B452" t="s">
         <v>449</v>
       </c>
       <c r="C452">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -8541,41 +8454,41 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="B453" t="s">
         <v>450</v>
       </c>
       <c r="C453">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="D453">
-        <v>0.27272727272727271</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="B454" t="s">
         <v>451</v>
       </c>
       <c r="C454">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="D454">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="B455" t="s">
         <v>452</v>
       </c>
       <c r="C455">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -8583,13 +8496,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="B456" t="s">
         <v>453</v>
       </c>
       <c r="C456">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -8597,13 +8510,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="B457" t="s">
         <v>454</v>
       </c>
       <c r="C457">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -8611,13 +8524,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B458" t="s">
         <v>455</v>
       </c>
       <c r="C458">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="D458">
         <v>0</v>
@@ -8625,41 +8538,41 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>568</v>
+        <v>77</v>
       </c>
       <c r="B459" t="s">
         <v>456</v>
       </c>
       <c r="C459">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>399</v>
+        <v>31</v>
       </c>
       <c r="B460" t="s">
         <v>457</v>
       </c>
       <c r="C460">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="D460">
-        <v>3.833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>567</v>
+        <v>57</v>
       </c>
       <c r="B461" t="s">
         <v>458</v>
       </c>
       <c r="C461">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -8667,13 +8580,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>67</v>
+        <v>438</v>
       </c>
       <c r="B462" t="s">
         <v>459</v>
       </c>
       <c r="C462">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -8681,13 +8594,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>599</v>
+        <v>217</v>
       </c>
       <c r="B463" t="s">
         <v>460</v>
       </c>
       <c r="C463">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -8695,13 +8608,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="B464" t="s">
         <v>461</v>
       </c>
       <c r="C464">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -8709,27 +8622,27 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B465" t="s">
         <v>462</v>
       </c>
       <c r="C465">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>0.16666666666666671</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>159</v>
+        <v>561</v>
       </c>
       <c r="B466" t="s">
         <v>463</v>
       </c>
       <c r="C466">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -8737,21 +8650,21 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="B467" t="s">
         <v>464</v>
       </c>
       <c r="C467">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="B468" t="s">
         <v>465</v>
@@ -8765,21 +8678,21 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>135</v>
+        <v>418</v>
       </c>
       <c r="B469" t="s">
         <v>466</v>
       </c>
       <c r="C469">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="B470" t="s">
         <v>467</v>
@@ -8793,27 +8706,27 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="B471" t="s">
         <v>468</v>
       </c>
       <c r="C471">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>460</v>
+        <v>138</v>
       </c>
       <c r="B472" t="s">
         <v>469</v>
       </c>
       <c r="C472">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -8821,21 +8734,21 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="B473" t="s">
         <v>470</v>
       </c>
       <c r="C473">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B474" t="s">
         <v>471</v>
@@ -8849,7 +8762,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>407</v>
+        <v>282</v>
       </c>
       <c r="B475" t="s">
         <v>472</v>
@@ -8863,27 +8776,27 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="B476" t="s">
         <v>473</v>
       </c>
       <c r="C476">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>3.2727272727272729</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="B477" t="s">
         <v>474</v>
       </c>
       <c r="C477">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -8891,13 +8804,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>349</v>
+        <v>35</v>
       </c>
       <c r="B478" t="s">
         <v>475</v>
       </c>
       <c r="C478">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -8905,27 +8818,27 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="B479" t="s">
         <v>476</v>
       </c>
       <c r="C479">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D479">
-        <v>0.77777777777777779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>419</v>
+        <v>122</v>
       </c>
       <c r="B480" t="s">
         <v>477</v>
       </c>
       <c r="C480">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -8933,27 +8846,27 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>454</v>
+        <v>58</v>
       </c>
       <c r="B481" t="s">
         <v>478</v>
       </c>
       <c r="C481">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B482" t="s">
         <v>479</v>
       </c>
       <c r="C482">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -8961,13 +8874,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="B483" t="s">
         <v>480</v>
       </c>
       <c r="C483">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -8975,13 +8888,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="B484" t="s">
         <v>481</v>
       </c>
       <c r="C484">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -8989,27 +8902,27 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="B485" t="s">
         <v>482</v>
       </c>
       <c r="C485">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="D485">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="B486" t="s">
         <v>483</v>
       </c>
       <c r="C486">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -9017,13 +8930,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="B487" t="s">
         <v>484</v>
       </c>
       <c r="C487">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -9031,13 +8944,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B488" t="s">
         <v>485</v>
       </c>
       <c r="C488">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -9045,13 +8958,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="B489" t="s">
         <v>486</v>
       </c>
       <c r="C489">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -9059,13 +8972,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>533</v>
+        <v>127</v>
       </c>
       <c r="B490" t="s">
         <v>487</v>
       </c>
       <c r="C490">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -9073,27 +8986,27 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="B491" t="s">
         <v>488</v>
       </c>
       <c r="C491">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D491">
-        <v>0.16666666666666671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>590</v>
+        <v>85</v>
       </c>
       <c r="B492" t="s">
         <v>489</v>
       </c>
       <c r="C492">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -9101,27 +9014,27 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>308</v>
+        <v>47</v>
       </c>
       <c r="B493" t="s">
         <v>490</v>
       </c>
       <c r="C493">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="D493">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>519</v>
+        <v>401</v>
       </c>
       <c r="B494" t="s">
         <v>491</v>
       </c>
       <c r="C494">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -9129,55 +9042,55 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>441</v>
+        <v>180</v>
       </c>
       <c r="B495" t="s">
         <v>492</v>
       </c>
       <c r="C495">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="D495">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>530</v>
+        <v>379</v>
       </c>
       <c r="B496" t="s">
         <v>493</v>
       </c>
       <c r="C496">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="B497" t="s">
         <v>494</v>
       </c>
       <c r="C497">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>145</v>
+        <v>557</v>
       </c>
       <c r="B498" t="s">
         <v>495</v>
       </c>
       <c r="C498">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -9185,21 +9098,21 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="B499" t="s">
         <v>496</v>
       </c>
       <c r="C499">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B500" t="s">
         <v>497</v>
@@ -9213,55 +9126,55 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="B501" t="s">
         <v>498</v>
       </c>
       <c r="C501">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="B502" t="s">
         <v>499</v>
       </c>
       <c r="C502">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D502">
-        <v>3.2727272727272729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="B503" t="s">
         <v>500</v>
       </c>
       <c r="C503">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>0.42857142857142849</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B504" t="s">
         <v>501</v>
       </c>
       <c r="C504">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="D504">
         <v>0</v>
@@ -9269,13 +9182,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B505" t="s">
         <v>502</v>
       </c>
       <c r="C505">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D505">
         <v>0</v>
@@ -9283,13 +9196,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="B506" t="s">
         <v>503</v>
       </c>
       <c r="C506">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="D506">
         <v>0</v>
@@ -9297,27 +9210,27 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="B507" t="s">
         <v>504</v>
       </c>
       <c r="C507">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="D507">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>71</v>
+        <v>537</v>
       </c>
       <c r="B508" t="s">
         <v>505</v>
       </c>
       <c r="C508">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -9325,13 +9238,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B509" t="s">
         <v>506</v>
       </c>
       <c r="C509">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D509">
         <v>0</v>
@@ -9339,27 +9252,27 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>537</v>
+        <v>395</v>
       </c>
       <c r="B510" t="s">
         <v>507</v>
       </c>
       <c r="C510">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B511" t="s">
         <v>508</v>
       </c>
       <c r="C511">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -9367,13 +9280,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="B512" t="s">
         <v>509</v>
       </c>
       <c r="C512">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -9381,55 +9294,55 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="B513" t="s">
         <v>510</v>
       </c>
       <c r="C513">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>493</v>
+        <v>125</v>
       </c>
       <c r="B514" t="s">
         <v>511</v>
       </c>
       <c r="C514">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="B515" t="s">
         <v>512</v>
       </c>
       <c r="C515">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B516" t="s">
         <v>513</v>
       </c>
       <c r="C516">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -9437,41 +9350,41 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B517" t="s">
         <v>514</v>
       </c>
       <c r="C517">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B518" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C518">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="D518">
-        <v>0</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B519" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C519">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -9479,13 +9392,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="B520" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C520">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -9493,55 +9406,55 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="B521" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C521">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="B522" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C522">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="D522">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>116</v>
+        <v>435</v>
       </c>
       <c r="B523" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C523">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="D523">
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>586</v>
+        <v>9</v>
       </c>
       <c r="B524" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C524">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -9549,13 +9462,13 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="B525" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C525">
-        <v>300</v>
+        <v>123</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -9563,10 +9476,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="B526" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C526">
         <v>300</v>
@@ -9577,27 +9490,27 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>19</v>
+        <v>423</v>
       </c>
       <c r="B527" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C527">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="D527">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="B528" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C528">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -9605,24 +9518,24 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="B529" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C529">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D529">
-        <v>0.42857142857142849</v>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B530" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C530">
         <v>44</v>
@@ -9633,13 +9546,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="B531" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C531">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -9647,13 +9560,13 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>364</v>
+        <v>481</v>
       </c>
       <c r="B532" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C532">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -9661,24 +9574,24 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>478</v>
+        <v>140</v>
       </c>
       <c r="B533" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C533">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>0.23076923076923081</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>566</v>
+        <v>34</v>
       </c>
       <c r="B534" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C534">
         <v>300</v>
@@ -9689,13 +9602,13 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B535" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C535">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -9703,27 +9616,27 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="B536" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C536">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="B537" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C537">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D537">
         <v>0</v>
@@ -9731,13 +9644,13 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B538" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C538">
-        <v>300</v>
+        <v>58</v>
       </c>
       <c r="D538">
         <v>0</v>
@@ -9745,52 +9658,52 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>468</v>
+        <v>555</v>
       </c>
       <c r="B539" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C539">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="D539">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>131</v>
+        <v>565</v>
       </c>
       <c r="B540" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C540">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D540">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>157</v>
+        <v>499</v>
       </c>
       <c r="B541" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C541">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>153</v>
+        <v>497</v>
       </c>
       <c r="B542" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C542">
         <v>300</v>
@@ -9801,41 +9714,41 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="B543" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C543">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D543">
-        <v>2.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="B544" t="s">
         <v>540</v>
       </c>
       <c r="C544">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D544">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B545" t="s">
         <v>541</v>
       </c>
       <c r="C545">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -9843,13 +9756,13 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="B546" t="s">
         <v>542</v>
       </c>
       <c r="C546">
-        <v>69</v>
+        <v>300</v>
       </c>
       <c r="D546">
         <v>0</v>
@@ -9857,41 +9770,41 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="B547" t="s">
         <v>543</v>
       </c>
       <c r="C547">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D547">
-        <v>2.375</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="B548" t="s">
         <v>544</v>
       </c>
       <c r="C548">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D548">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B549" t="s">
         <v>545</v>
       </c>
       <c r="C549">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D549">
         <v>0</v>
@@ -9899,13 +9812,13 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B550" t="s">
         <v>546</v>
       </c>
       <c r="C550">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -9913,13 +9826,13 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>273</v>
+        <v>518</v>
       </c>
       <c r="B551" t="s">
         <v>547</v>
       </c>
       <c r="C551">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -9927,7 +9840,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B552" t="s">
         <v>548</v>
@@ -9941,13 +9854,13 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B553" t="s">
         <v>549</v>
       </c>
       <c r="C553">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="D553">
         <v>0</v>
@@ -9955,13 +9868,13 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="B554" t="s">
         <v>550</v>
       </c>
       <c r="C554">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D554">
         <v>0</v>
@@ -9969,27 +9882,27 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>362</v>
+        <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>551</v>
       </c>
       <c r="C555">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="D555">
-        <v>0.14285714285714279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>27</v>
+        <v>503</v>
       </c>
       <c r="B556" t="s">
         <v>552</v>
       </c>
       <c r="C556">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="D556">
         <v>0</v>
@@ -9997,13 +9910,13 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="B557" t="s">
         <v>553</v>
       </c>
       <c r="C557">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="D557">
         <v>0</v>
@@ -10011,13 +9924,13 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>504</v>
+        <v>41</v>
       </c>
       <c r="B558" t="s">
         <v>554</v>
       </c>
       <c r="C558">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D558">
         <v>0</v>
@@ -10025,41 +9938,41 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B559" t="s">
         <v>555</v>
       </c>
       <c r="C559">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D559">
-        <v>0.23076923076923081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>34</v>
+        <v>443</v>
       </c>
       <c r="B560" t="s">
         <v>556</v>
       </c>
       <c r="C560">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="D560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="B561" t="s">
         <v>557</v>
       </c>
       <c r="C561">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="D561">
         <v>0</v>
@@ -10067,27 +9980,27 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>288</v>
+        <v>404</v>
       </c>
       <c r="B562" t="s">
         <v>558</v>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D562">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>234</v>
+        <v>535</v>
       </c>
       <c r="B563" t="s">
         <v>559</v>
       </c>
       <c r="C563">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="D563">
         <v>0</v>
@@ -10095,27 +10008,27 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="B564" t="s">
         <v>560</v>
       </c>
       <c r="C564">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="D564">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>584</v>
+        <v>24</v>
       </c>
       <c r="B565" t="s">
         <v>561</v>
       </c>
       <c r="C565">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="D565">
         <v>0</v>
@@ -10123,21 +10036,21 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>594</v>
+        <v>211</v>
       </c>
       <c r="B566" t="s">
         <v>562</v>
       </c>
       <c r="C566">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="B567" t="s">
         <v>563</v>
@@ -10151,13 +10064,13 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>520</v>
+        <v>398</v>
       </c>
       <c r="B568" t="s">
         <v>564</v>
       </c>
       <c r="C568">
-        <v>300</v>
+        <v>123</v>
       </c>
       <c r="D568">
         <v>0</v>
@@ -10165,13 +10078,13 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="B569" t="s">
         <v>565</v>
       </c>
       <c r="C569">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="D569">
         <v>0</v>
@@ -10179,13 +10092,13 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="B570" t="s">
         <v>566</v>
       </c>
       <c r="C570">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="D570">
         <v>0</v>
@@ -10193,13 +10106,13 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B571" t="s">
         <v>567</v>
       </c>
       <c r="C571">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D571">
         <v>0</v>
@@ -10207,7 +10120,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="B572" t="s">
         <v>568</v>
@@ -10216,46 +10129,46 @@
         <v>300</v>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>283</v>
+        <v>448</v>
       </c>
       <c r="B573" t="s">
         <v>569</v>
       </c>
       <c r="C573">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D573">
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="B574" t="s">
         <v>570</v>
       </c>
       <c r="C574">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D574">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="B575" t="s">
         <v>571</v>
       </c>
       <c r="C575">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="D575">
         <v>0</v>
@@ -10263,27 +10176,27 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="B576" t="s">
         <v>572</v>
       </c>
       <c r="C576">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>547</v>
+        <v>131</v>
       </c>
       <c r="B577" t="s">
         <v>573</v>
       </c>
       <c r="C577">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -10291,7 +10204,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B578" t="s">
         <v>574</v>
@@ -10305,421 +10218,15 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B579" t="s">
         <v>575</v>
       </c>
       <c r="C579">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="D579">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="1">
-        <v>456</v>
-      </c>
-      <c r="B580" t="s">
-        <v>576</v>
-      </c>
-      <c r="C580">
-        <v>163</v>
-      </c>
-      <c r="D580">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="1">
-        <v>582</v>
-      </c>
-      <c r="B581" t="s">
-        <v>577</v>
-      </c>
-      <c r="C581">
-        <v>300</v>
-      </c>
-      <c r="D581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="1">
-        <v>531</v>
-      </c>
-      <c r="B582" t="s">
-        <v>578</v>
-      </c>
-      <c r="C582">
-        <v>256</v>
-      </c>
-      <c r="D582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="1">
-        <v>372</v>
-      </c>
-      <c r="B583" t="s">
-        <v>579</v>
-      </c>
-      <c r="C583">
-        <v>300</v>
-      </c>
-      <c r="D583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="1">
-        <v>41</v>
-      </c>
-      <c r="B584" t="s">
-        <v>580</v>
-      </c>
-      <c r="C584">
-        <v>171</v>
-      </c>
-      <c r="D584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A585" s="1">
-        <v>85</v>
-      </c>
-      <c r="B585" t="s">
-        <v>581</v>
-      </c>
-      <c r="C585">
-        <v>7</v>
-      </c>
-      <c r="D585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="1">
-        <v>466</v>
-      </c>
-      <c r="B586" t="s">
-        <v>582</v>
-      </c>
-      <c r="C586">
-        <v>55</v>
-      </c>
-      <c r="D586">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="1">
-        <v>183</v>
-      </c>
-      <c r="B587" t="s">
-        <v>583</v>
-      </c>
-      <c r="C587">
-        <v>300</v>
-      </c>
-      <c r="D587">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A588" s="1">
-        <v>427</v>
-      </c>
-      <c r="B588" t="s">
-        <v>584</v>
-      </c>
-      <c r="C588">
-        <v>69</v>
-      </c>
-      <c r="D588">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="1">
-        <v>412</v>
-      </c>
-      <c r="B589" t="s">
-        <v>585</v>
-      </c>
-      <c r="C589">
-        <v>300</v>
-      </c>
-      <c r="D589">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="1">
-        <v>564</v>
-      </c>
-      <c r="B590" t="s">
-        <v>586</v>
-      </c>
-      <c r="C590">
-        <v>300</v>
-      </c>
-      <c r="D590">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="1">
-        <v>455</v>
-      </c>
-      <c r="B591" t="s">
-        <v>587</v>
-      </c>
-      <c r="C591">
-        <v>165</v>
-      </c>
-      <c r="D591">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="1">
-        <v>24</v>
-      </c>
-      <c r="B592" t="s">
-        <v>588</v>
-      </c>
-      <c r="C592">
-        <v>60</v>
-      </c>
-      <c r="D592">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="1">
-        <v>223</v>
-      </c>
-      <c r="B593" t="s">
-        <v>589</v>
-      </c>
-      <c r="C593">
-        <v>300</v>
-      </c>
-      <c r="D593">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="1">
-        <v>481</v>
-      </c>
-      <c r="B594" t="s">
-        <v>590</v>
-      </c>
-      <c r="C594">
-        <v>300</v>
-      </c>
-      <c r="D594">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="1">
-        <v>233</v>
-      </c>
-      <c r="B595" t="s">
-        <v>591</v>
-      </c>
-      <c r="C595">
-        <v>300</v>
-      </c>
-      <c r="D595">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="1">
-        <v>421</v>
-      </c>
-      <c r="B596" t="s">
-        <v>592</v>
-      </c>
-      <c r="C596">
-        <v>123</v>
-      </c>
-      <c r="D596">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A597" s="1">
-        <v>278</v>
-      </c>
-      <c r="B597" t="s">
-        <v>593</v>
-      </c>
-      <c r="C597">
-        <v>82</v>
-      </c>
-      <c r="D597">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="1">
-        <v>76</v>
-      </c>
-      <c r="B598" t="s">
-        <v>594</v>
-      </c>
-      <c r="C598">
-        <v>61</v>
-      </c>
-      <c r="D598">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="1">
-        <v>95</v>
-      </c>
-      <c r="B599" t="s">
-        <v>595</v>
-      </c>
-      <c r="C599">
-        <v>300</v>
-      </c>
-      <c r="D599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="1">
-        <v>10</v>
-      </c>
-      <c r="B600" t="s">
-        <v>596</v>
-      </c>
-      <c r="C600">
-        <v>226</v>
-      </c>
-      <c r="D600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="1">
-        <v>37</v>
-      </c>
-      <c r="B601" t="s">
-        <v>597</v>
-      </c>
-      <c r="C601">
-        <v>300</v>
-      </c>
-      <c r="D601">
-        <v>2.666666666666667</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="1">
-        <v>471</v>
-      </c>
-      <c r="B602" t="s">
-        <v>598</v>
-      </c>
-      <c r="C602">
-        <v>21</v>
-      </c>
-      <c r="D602">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="1">
-        <v>165</v>
-      </c>
-      <c r="B603" t="s">
-        <v>599</v>
-      </c>
-      <c r="C603">
-        <v>105</v>
-      </c>
-      <c r="D603">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="1">
-        <v>108</v>
-      </c>
-      <c r="B604" t="s">
-        <v>600</v>
-      </c>
-      <c r="C604">
-        <v>95</v>
-      </c>
-      <c r="D604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="1">
-        <v>363</v>
-      </c>
-      <c r="B605" t="s">
-        <v>601</v>
-      </c>
-      <c r="C605">
-        <v>300</v>
-      </c>
-      <c r="D605">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="1">
-        <v>138</v>
-      </c>
-      <c r="B606" t="s">
-        <v>602</v>
-      </c>
-      <c r="C606">
-        <v>74</v>
-      </c>
-      <c r="D606">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="1">
-        <v>515</v>
-      </c>
-      <c r="B607" t="s">
-        <v>603</v>
-      </c>
-      <c r="C607">
-        <v>300</v>
-      </c>
-      <c r="D607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="1">
-        <v>508</v>
-      </c>
-      <c r="B608" t="s">
-        <v>604</v>
-      </c>
-      <c r="C608">
-        <v>37</v>
-      </c>
-      <c r="D608">
         <v>0</v>
       </c>
     </row>

--- a/Data/wr_draft_capital_only.xlsx
+++ b/Data/wr_draft_capital_only.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="397">
   <si>
     <t>Unnamed: 0_level_0</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Unnamed: 4_level_0</t>
   </si>
   <si>
+    <t>Unnamed: 6_level_0</t>
+  </si>
+  <si>
     <t>NFL Career Marks since 2000</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>Draft Year</t>
   </si>
   <si>
     <t>AVG PPG (PPR) Season 1-3</t>
@@ -1571,15 +1577,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1590,5518 +1596,6703 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>51</v>
       </c>
       <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
         <v>12.98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>470</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
+        <v>2011</v>
+      </c>
+      <c r="E4">
         <v>18.14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>471</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5">
+        <v>2012</v>
+      </c>
+      <c r="E5">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>469</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>213</v>
       </c>
       <c r="D6">
+        <v>2016</v>
+      </c>
+      <c r="E6">
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>466</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>59</v>
       </c>
       <c r="D7">
+        <v>2013</v>
+      </c>
+      <c r="E7">
         <v>5.7833333333333341</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>210</v>
+        <v>587</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>101</v>
       </c>
       <c r="D8">
+        <v>2013</v>
+      </c>
+      <c r="E8">
         <v>4.375</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>178</v>
+        <v>644</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>184</v>
       </c>
       <c r="D9">
+        <v>2006</v>
+      </c>
+      <c r="E9">
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>237</v>
       </c>
       <c r="D10">
+        <v>2008</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>511</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>178</v>
       </c>
       <c r="D11">
+        <v>2011</v>
+      </c>
+      <c r="E11">
         <v>5.5049999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>502</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>61</v>
       </c>
       <c r="D12">
+        <v>2014</v>
+      </c>
+      <c r="E12">
         <v>14.43333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>45</v>
       </c>
       <c r="D13">
+        <v>2012</v>
+      </c>
+      <c r="E13">
         <v>14.28333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>427</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>106</v>
       </c>
       <c r="D14">
+        <v>2017</v>
+      </c>
+      <c r="E14">
         <v>1.94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
+        <v>2015</v>
+      </c>
+      <c r="E15">
         <v>13.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>97</v>
       </c>
       <c r="D16">
+        <v>2008</v>
+      </c>
+      <c r="E16">
         <v>5.23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
+        <v>2003</v>
+      </c>
+      <c r="E17">
         <v>12.956666666666671</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>62</v>
       </c>
       <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18">
         <v>3.93</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>54</v>
       </c>
       <c r="D19">
+        <v>2003</v>
+      </c>
+      <c r="E19">
         <v>17.673333333333328</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>32</v>
       </c>
       <c r="D20">
+        <v>2007</v>
+      </c>
+      <c r="E20">
         <v>9.5300000000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>607</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>51</v>
       </c>
       <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21">
         <v>8.8649999999999984</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>640</v>
+        <v>408</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>195</v>
       </c>
       <c r="D22">
+        <v>2010</v>
+      </c>
+      <c r="E22">
         <v>9.923</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>179</v>
+        <v>543</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>105</v>
       </c>
       <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23">
         <v>5.9950000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>79</v>
       </c>
       <c r="D24">
+        <v>2017</v>
+      </c>
+      <c r="E24">
         <v>1.41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>85</v>
+        <v>393</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>197</v>
       </c>
       <c r="D25">
+        <v>2003</v>
+      </c>
+      <c r="E25">
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>39</v>
       </c>
       <c r="D26">
+        <v>2010</v>
+      </c>
+      <c r="E26">
         <v>4.91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>253</v>
       </c>
       <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27">
         <v>5.15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>146</v>
       </c>
       <c r="D28">
+        <v>2007</v>
+      </c>
+      <c r="E28">
         <v>2.7650000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>582</v>
+        <v>431</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>127</v>
       </c>
       <c r="D29">
+        <v>2009</v>
+      </c>
+      <c r="E29">
         <v>11.97666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>78</v>
       </c>
       <c r="D30">
+        <v>2011</v>
+      </c>
+      <c r="E30">
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>206</v>
+        <v>616</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>249</v>
       </c>
       <c r="D31">
+        <v>2006</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>500</v>
+        <v>645</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>78</v>
       </c>
       <c r="D32">
+        <v>2004</v>
+      </c>
+      <c r="E32">
         <v>6.8566666666666656</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>45</v>
       </c>
       <c r="D33">
+        <v>2003</v>
+      </c>
+      <c r="E33">
         <v>4.1000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>513</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>95</v>
       </c>
       <c r="D34">
+        <v>2003</v>
+      </c>
+      <c r="E34">
         <v>1.87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>535</v>
+        <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>139</v>
       </c>
       <c r="D35">
+        <v>2003</v>
+      </c>
+      <c r="E35">
         <v>3.623333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>589</v>
+        <v>493</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>20</v>
       </c>
       <c r="D36">
+        <v>2014</v>
+      </c>
+      <c r="E36">
         <v>15.866666666666671</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>507</v>
+        <v>600</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>194</v>
       </c>
       <c r="D37">
+        <v>2009</v>
+      </c>
+      <c r="E37">
         <v>8.2333333333333325</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>96</v>
       </c>
       <c r="D38">
+        <v>2005</v>
+      </c>
+      <c r="E38">
         <v>7.19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>492</v>
+        <v>598</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>78</v>
       </c>
       <c r="D39">
+        <v>2010</v>
+      </c>
+      <c r="E39">
         <v>8.24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>124</v>
       </c>
       <c r="D40">
+        <v>2003</v>
+      </c>
+      <c r="E40">
         <v>7.8900000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>262</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>119</v>
       </c>
       <c r="D41">
+        <v>2006</v>
+      </c>
+      <c r="E41">
         <v>13.883333333333329</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>83</v>
       </c>
       <c r="D42">
+        <v>2009</v>
+      </c>
+      <c r="E42">
         <v>2.96</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>85</v>
       </c>
       <c r="D43">
+        <v>2016</v>
+      </c>
+      <c r="E43">
         <v>3.85</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>617</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44">
+        <v>2005</v>
+      </c>
+      <c r="E44">
         <v>13.73</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>26</v>
       </c>
       <c r="D45">
+        <v>2015</v>
+      </c>
+      <c r="E45">
         <v>4.05</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>217</v>
       </c>
       <c r="D46">
+        <v>2008</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>108</v>
       </c>
       <c r="D47">
+        <v>2009</v>
+      </c>
+      <c r="E47">
         <v>7.626666666666666</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>36</v>
       </c>
       <c r="D48">
+        <v>2009</v>
+      </c>
+      <c r="E48">
         <v>3.1433333333333331</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>93</v>
+        <v>425</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>209</v>
       </c>
       <c r="D49">
+        <v>2013</v>
+      </c>
+      <c r="E49">
         <v>4.6433333333333344</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>106</v>
       </c>
       <c r="D50">
+        <v>2014</v>
+      </c>
+      <c r="E50">
         <v>3.665</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>17</v>
       </c>
       <c r="D51">
+        <v>2003</v>
+      </c>
+      <c r="E51">
         <v>6.45</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>505</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
+        <v>2007</v>
+      </c>
+      <c r="E52">
         <v>13.856666666666669</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>26</v>
       </c>
       <c r="D53">
+        <v>2018</v>
+      </c>
+      <c r="E53">
         <v>14.06</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>82</v>
       </c>
       <c r="D54">
+        <v>2017</v>
+      </c>
+      <c r="E54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>177</v>
       </c>
       <c r="D55">
+        <v>2010</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>264</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>141</v>
       </c>
       <c r="D56">
+        <v>2017</v>
+      </c>
+      <c r="E56">
         <v>3.18</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>288</v>
+        <v>618</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>36</v>
       </c>
       <c r="D57">
+        <v>2006</v>
+      </c>
+      <c r="E57">
         <v>3.625</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>381</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>235</v>
       </c>
       <c r="D58">
+        <v>2007</v>
+      </c>
+      <c r="E58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
+        <v>2003</v>
+      </c>
+      <c r="E59">
         <v>6.0533333333333337</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>241</v>
       </c>
       <c r="D60">
+        <v>2016</v>
+      </c>
+      <c r="E60">
         <v>2.046666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>226</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>226</v>
       </c>
       <c r="D61">
+        <v>2008</v>
+      </c>
+      <c r="E61">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>278</v>
+        <v>573</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <v>76</v>
       </c>
       <c r="D62">
+        <v>2015</v>
+      </c>
+      <c r="E62">
         <v>5.456666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>128</v>
       </c>
       <c r="D63">
+        <v>2007</v>
+      </c>
+      <c r="E63">
         <v>1.8066666666666671</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>207</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>96</v>
       </c>
       <c r="D64">
+        <v>2012</v>
+      </c>
+      <c r="E64">
         <v>6.2666666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>439</v>
+        <v>283</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>84</v>
       </c>
       <c r="D65">
+        <v>2017</v>
+      </c>
+      <c r="E65">
         <v>11.71</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66">
         <v>83</v>
       </c>
       <c r="D66">
+        <v>2005</v>
+      </c>
+      <c r="E66">
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <v>107</v>
       </c>
       <c r="D67">
+        <v>2016</v>
+      </c>
+      <c r="E67">
         <v>3.4466666666666672</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>600</v>
+        <v>537</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>47</v>
       </c>
       <c r="D68">
+        <v>2018</v>
+      </c>
+      <c r="E68">
         <v>11.585000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>493</v>
+        <v>586</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69">
         <v>197</v>
       </c>
       <c r="D69">
+        <v>2013</v>
+      </c>
+      <c r="E69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>146</v>
+        <v>567</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>199</v>
       </c>
       <c r="D70">
+        <v>2016</v>
+      </c>
+      <c r="E70">
         <v>3.023333333333333</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>56</v>
       </c>
       <c r="D71">
+        <v>2014</v>
+      </c>
+      <c r="E71">
         <v>2.06</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>61</v>
+        <v>589</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72">
         <v>29</v>
       </c>
       <c r="D72">
+        <v>2013</v>
+      </c>
+      <c r="E72">
         <v>5.3166666666666664</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>488</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73">
         <v>15</v>
       </c>
       <c r="D73">
+        <v>2016</v>
+      </c>
+      <c r="E73">
         <v>6.4033333333333333</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>643</v>
+        <v>400</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
+        <v>2017</v>
+      </c>
+      <c r="E74">
         <v>8.7866666666666671</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75">
         <v>171</v>
       </c>
       <c r="D75">
+        <v>2013</v>
+      </c>
+      <c r="E75">
         <v>3.3250000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>528</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>40</v>
       </c>
       <c r="D76">
+        <v>2018</v>
+      </c>
+      <c r="E76">
         <v>11.545</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C77">
         <v>68</v>
       </c>
       <c r="D77">
+        <v>2005</v>
+      </c>
+      <c r="E77">
         <v>3.605</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>434</v>
+        <v>610</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>197</v>
       </c>
       <c r="D78">
+        <v>2007</v>
+      </c>
+      <c r="E78">
         <v>2.72</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>353</v>
+        <v>613</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C79">
         <v>30</v>
       </c>
       <c r="D79">
+        <v>2007</v>
+      </c>
+      <c r="E79">
         <v>3.4649999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C80">
         <v>116</v>
       </c>
       <c r="D80">
+        <v>2005</v>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C81">
         <v>40</v>
       </c>
       <c r="D81">
+        <v>2017</v>
+      </c>
+      <c r="E81">
         <v>8.8600000000000012</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>96</v>
+        <v>540</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>61</v>
       </c>
       <c r="D82">
+        <v>2018</v>
+      </c>
+      <c r="E82">
         <v>9.5449999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>157</v>
       </c>
       <c r="D83">
+        <v>2004</v>
+      </c>
+      <c r="E83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>403</v>
+        <v>279</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>24</v>
       </c>
       <c r="D84">
+        <v>2018</v>
+      </c>
+      <c r="E84">
         <v>12.685</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>97</v>
+        <v>529</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>64</v>
       </c>
       <c r="D85">
+        <v>2019</v>
+      </c>
+      <c r="E85">
         <v>11.53</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>580</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>113</v>
       </c>
       <c r="D86">
+        <v>2018</v>
+      </c>
+      <c r="E86">
         <v>7.0750000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>227</v>
       </c>
       <c r="D87">
+        <v>2007</v>
+      </c>
+      <c r="E87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>77</v>
       </c>
       <c r="D88">
+        <v>2010</v>
+      </c>
+      <c r="E88">
         <v>6.05</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>44</v>
       </c>
       <c r="D89">
+        <v>2018</v>
+      </c>
+      <c r="E89">
         <v>7.68</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>604</v>
+        <v>412</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <v>192</v>
       </c>
       <c r="D90">
+        <v>2005</v>
+      </c>
+      <c r="E90">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>131</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>171</v>
       </c>
       <c r="D91">
+        <v>2019</v>
+      </c>
+      <c r="E91">
         <v>12.38</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>630</v>
+        <v>413</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>54</v>
       </c>
       <c r="D92">
+        <v>2004</v>
+      </c>
+      <c r="E92">
         <v>3.6749999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <v>7</v>
       </c>
       <c r="D93">
+        <v>2009</v>
+      </c>
+      <c r="E93">
         <v>6.8033333333333319</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>598</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>53</v>
       </c>
       <c r="D94">
+        <v>2014</v>
+      </c>
+      <c r="E94">
         <v>10.13666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>585</v>
+        <v>434</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C95">
         <v>251</v>
       </c>
       <c r="D95">
+        <v>2006</v>
+      </c>
+      <c r="E95">
         <v>4.92</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C96">
         <v>157</v>
       </c>
       <c r="D96">
+        <v>2007</v>
+      </c>
+      <c r="E96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>198</v>
       </c>
       <c r="D97">
+        <v>2010</v>
+      </c>
+      <c r="E97">
         <v>7.45</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>237</v>
+        <v>429</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C98">
         <v>156</v>
       </c>
       <c r="D98">
+        <v>2010</v>
+      </c>
+      <c r="E98">
         <v>1.8266666666666671</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C99">
         <v>211</v>
       </c>
       <c r="D99">
+        <v>2003</v>
+      </c>
+      <c r="E99">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>267</v>
+        <v>491</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C100">
         <v>124</v>
       </c>
       <c r="D100">
+        <v>2014</v>
+      </c>
+      <c r="E100">
         <v>3.6466666666666669</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>569</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C101">
         <v>27</v>
       </c>
       <c r="D101">
+        <v>2013</v>
+      </c>
+      <c r="E101">
         <v>15.16333333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C102">
         <v>132</v>
       </c>
       <c r="D102">
+        <v>2015</v>
+      </c>
+      <c r="E102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103">
         <v>110</v>
       </c>
       <c r="D103">
+        <v>2017</v>
+      </c>
+      <c r="E103">
         <v>10.66666666666667</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104">
         <v>36</v>
       </c>
       <c r="D104">
+        <v>2019</v>
+      </c>
+      <c r="E104">
         <v>11.91</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>130</v>
+        <v>428</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C105">
         <v>249</v>
       </c>
       <c r="D105">
+        <v>2011</v>
+      </c>
+      <c r="E105">
         <v>1.32</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106">
         <v>229</v>
       </c>
       <c r="D106">
+        <v>2016</v>
+      </c>
+      <c r="E106">
         <v>1.9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>233</v>
+        <v>570</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C107">
         <v>126</v>
       </c>
       <c r="D107">
+        <v>2016</v>
+      </c>
+      <c r="E107">
         <v>4.2149999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C108">
         <v>22</v>
       </c>
       <c r="D108">
+        <v>2010</v>
+      </c>
+      <c r="E108">
         <v>12.246666666666661</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>111</v>
       </c>
       <c r="D109">
+        <v>2006</v>
+      </c>
+      <c r="E109">
         <v>5.1333333333333329</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>263</v>
+        <v>593</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C110">
         <v>148</v>
       </c>
       <c r="D110">
+        <v>2011</v>
+      </c>
+      <c r="E110">
         <v>10.973333333333329</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>508</v>
+        <v>318</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C111">
         <v>91</v>
       </c>
       <c r="D111">
+        <v>2009</v>
+      </c>
+      <c r="E111">
         <v>4.4433333333333334</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C112">
         <v>185</v>
       </c>
       <c r="D112">
+        <v>2018</v>
+      </c>
+      <c r="E112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C113">
         <v>82</v>
       </c>
       <c r="D113">
+        <v>2006</v>
+      </c>
+      <c r="E113">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>458</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C114">
         <v>82</v>
       </c>
       <c r="D114">
+        <v>2009</v>
+      </c>
+      <c r="E114">
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C115">
         <v>49</v>
       </c>
       <c r="D115">
+        <v>2008</v>
+      </c>
+      <c r="E115">
         <v>14.526666666666671</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C116">
         <v>14</v>
       </c>
       <c r="D116">
+        <v>2015</v>
+      </c>
+      <c r="E116">
         <v>10.13666666666667</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C117">
         <v>82</v>
       </c>
       <c r="D117">
+        <v>2004</v>
+      </c>
+      <c r="E117">
         <v>2.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>135</v>
+        <v>622</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C118">
         <v>50</v>
       </c>
       <c r="D118">
+        <v>2004</v>
+      </c>
+      <c r="E118">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C119">
         <v>68</v>
       </c>
       <c r="D119">
+        <v>2012</v>
+      </c>
+      <c r="E119">
         <v>3.25</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>104</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C120">
         <v>233</v>
       </c>
       <c r="D120">
+        <v>2006</v>
+      </c>
+      <c r="E120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C121">
         <v>41</v>
       </c>
       <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
         <v>7.95</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C122">
         <v>57</v>
       </c>
       <c r="D122">
+        <v>2006</v>
+      </c>
+      <c r="E122">
         <v>4.3166666666666664</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>297</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C123">
         <v>37</v>
       </c>
       <c r="D123">
+        <v>2015</v>
+      </c>
+      <c r="E123">
         <v>3.395</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>562</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C124">
         <v>146</v>
       </c>
       <c r="D124">
+        <v>2014</v>
+      </c>
+      <c r="E124">
         <v>1.6433333333333331</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C125">
         <v>34</v>
       </c>
       <c r="D125">
+        <v>2008</v>
+      </c>
+      <c r="E125">
         <v>3.09</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>209</v>
+        <v>633</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C126">
         <v>107</v>
       </c>
       <c r="D126">
+        <v>2012</v>
+      </c>
+      <c r="E126">
         <v>2.73</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>407</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C127">
         <v>24</v>
       </c>
       <c r="D127">
+        <v>2010</v>
+      </c>
+      <c r="E127">
         <v>15.01</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>495</v>
+        <v>206</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C128">
         <v>191</v>
       </c>
       <c r="D128">
+        <v>2010</v>
+      </c>
+      <c r="E128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C129">
         <v>239</v>
       </c>
       <c r="D129">
+        <v>2019</v>
+      </c>
+      <c r="E129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C130">
         <v>66</v>
       </c>
       <c r="D130">
+        <v>2019</v>
+      </c>
+      <c r="E130">
         <v>10.06</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C131">
         <v>130</v>
       </c>
       <c r="D131">
+        <v>2006</v>
+      </c>
+      <c r="E131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>574</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C132">
         <v>33</v>
       </c>
       <c r="D132">
+        <v>2008</v>
+      </c>
+      <c r="E132">
         <v>9.7250000000000014</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>313</v>
+        <v>583</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C133">
         <v>90</v>
       </c>
       <c r="D133">
+        <v>2014</v>
+      </c>
+      <c r="E133">
         <v>9.9799999999999986</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>171</v>
+        <v>576</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C134">
         <v>40</v>
       </c>
       <c r="D134">
+        <v>2015</v>
+      </c>
+      <c r="E134">
         <v>7.2149999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C135">
         <v>167</v>
       </c>
       <c r="D135">
+        <v>2003</v>
+      </c>
+      <c r="E135">
         <v>5.4433333333333316</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>50</v>
+        <v>344</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C136">
         <v>163</v>
       </c>
       <c r="D136">
+        <v>2004</v>
+      </c>
+      <c r="E136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>437</v>
+        <v>612</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C137">
         <v>23</v>
       </c>
       <c r="D137">
+        <v>2007</v>
+      </c>
+      <c r="E137">
         <v>13.323333333333331</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>627</v>
+        <v>367</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C138">
         <v>176</v>
       </c>
       <c r="D138">
+        <v>2011</v>
+      </c>
+      <c r="E138">
         <v>4.625</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C139">
         <v>45</v>
       </c>
       <c r="D139">
+        <v>2007</v>
+      </c>
+      <c r="E139">
         <v>2.9433333333333329</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C140">
         <v>70</v>
       </c>
       <c r="D140">
+        <v>2008</v>
+      </c>
+      <c r="E140">
         <v>8.7850000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>452</v>
+        <v>607</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C141">
         <v>81</v>
       </c>
       <c r="D141">
+        <v>2008</v>
+      </c>
+      <c r="E141">
         <v>4.9633333333333338</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C142">
         <v>42</v>
       </c>
       <c r="D142">
+        <v>2008</v>
+      </c>
+      <c r="E142">
         <v>10.15666666666667</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>633</v>
+        <v>368</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C143">
         <v>82</v>
       </c>
       <c r="D143">
+        <v>2010</v>
+      </c>
+      <c r="E143">
         <v>6.94</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C144">
         <v>207</v>
       </c>
       <c r="D144">
+        <v>2018</v>
+      </c>
+      <c r="E144">
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>588</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C145">
         <v>87</v>
       </c>
       <c r="D145">
+        <v>2010</v>
+      </c>
+      <c r="E145">
         <v>9.8033333333333328</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>475</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C146">
         <v>120</v>
       </c>
       <c r="D146">
+        <v>2019</v>
+      </c>
+      <c r="E146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>467</v>
+        <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C147">
         <v>186</v>
       </c>
       <c r="D147">
+        <v>2015</v>
+      </c>
+      <c r="E147">
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C148">
         <v>60</v>
       </c>
       <c r="D148">
+        <v>2010</v>
+      </c>
+      <c r="E148">
         <v>6.9466666666666681</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>605</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C149">
         <v>52</v>
       </c>
       <c r="D149">
+        <v>2006</v>
+      </c>
+      <c r="E149">
         <v>14.196666666666671</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C150">
         <v>59</v>
       </c>
       <c r="D150">
+        <v>2011</v>
+      </c>
+      <c r="E150">
         <v>8.2833333333333332</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C151">
         <v>112</v>
       </c>
       <c r="D151">
+        <v>2011</v>
+      </c>
+      <c r="E151">
         <v>7.1050000000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C152">
         <v>103</v>
       </c>
       <c r="D152">
+        <v>2019</v>
+      </c>
+      <c r="E152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C153">
         <v>29</v>
       </c>
       <c r="D153">
+        <v>2009</v>
+      </c>
+      <c r="E153">
         <v>15.78</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>486</v>
+        <v>247</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C154">
         <v>84</v>
       </c>
       <c r="D154">
+        <v>2008</v>
+      </c>
+      <c r="E154">
         <v>4.51</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C155">
         <v>237</v>
       </c>
       <c r="D155">
+        <v>2017</v>
+      </c>
+      <c r="E155">
         <v>2.5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>72</v>
+        <v>564</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C156">
         <v>172</v>
       </c>
       <c r="D156">
+        <v>2017</v>
+      </c>
+      <c r="E156">
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>344</v>
+        <v>478</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C157">
         <v>57</v>
       </c>
       <c r="D157">
+        <v>2019</v>
+      </c>
+      <c r="E157">
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C158">
         <v>133</v>
       </c>
       <c r="D158">
+        <v>2018</v>
+      </c>
+      <c r="E158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C159">
         <v>108</v>
       </c>
       <c r="D159">
+        <v>2010</v>
+      </c>
+      <c r="E159">
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C160">
         <v>73</v>
       </c>
       <c r="D160">
+        <v>2007</v>
+      </c>
+      <c r="E160">
         <v>4.2600000000000007</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C161">
         <v>70</v>
       </c>
       <c r="D161">
+        <v>2015</v>
+      </c>
+      <c r="E161">
         <v>7.126666666666666</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>620</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C162">
         <v>186</v>
       </c>
       <c r="D162">
+        <v>2016</v>
+      </c>
+      <c r="E162">
         <v>3.7133333333333329</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C163">
         <v>67</v>
       </c>
       <c r="D163">
+        <v>2019</v>
+      </c>
+      <c r="E163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C164">
         <v>168</v>
       </c>
       <c r="D164">
+        <v>2004</v>
+      </c>
+      <c r="E164">
         <v>1.65</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>527</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C165">
         <v>41</v>
       </c>
       <c r="D165">
+        <v>2008</v>
+      </c>
+      <c r="E165">
         <v>2.6</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>315</v>
+        <v>640</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C166">
         <v>78</v>
       </c>
       <c r="D166">
+        <v>2007</v>
+      </c>
+      <c r="E166">
         <v>7.0366666666666662</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>590</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C167">
         <v>60</v>
       </c>
       <c r="D167">
+        <v>2018</v>
+      </c>
+      <c r="E167">
         <v>6.4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>23</v>
+        <v>580</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C168">
         <v>239</v>
       </c>
       <c r="D168">
+        <v>2014</v>
+      </c>
+      <c r="E168">
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>632</v>
+        <v>50</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C169">
         <v>105</v>
       </c>
       <c r="D169">
+        <v>2015</v>
+      </c>
+      <c r="E169">
         <v>10.57666666666667</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>563</v>
+        <v>303</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C170">
         <v>176</v>
       </c>
       <c r="D170">
+        <v>2014</v>
+      </c>
+      <c r="E170">
         <v>2.46</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>636</v>
+        <v>369</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C171">
         <v>144</v>
       </c>
       <c r="D171">
+        <v>2009</v>
+      </c>
+      <c r="E171">
         <v>4.26</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>473</v>
+        <v>590</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C172">
         <v>118</v>
       </c>
       <c r="D172">
+        <v>2012</v>
+      </c>
+      <c r="E172">
         <v>7.3633333333333324</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>370</v>
+        <v>581</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C173">
         <v>63</v>
       </c>
       <c r="D173">
+        <v>2014</v>
+      </c>
+      <c r="E173">
         <v>14.41</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C174">
         <v>109</v>
       </c>
       <c r="D174">
+        <v>2006</v>
+      </c>
+      <c r="E174">
         <v>4.1499999999999986</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C175">
         <v>76</v>
       </c>
       <c r="D175">
+        <v>2007</v>
+      </c>
+      <c r="E175">
         <v>4.0100000000000007</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C176">
         <v>224</v>
       </c>
       <c r="D176">
+        <v>2018</v>
+      </c>
+      <c r="E176">
         <v>1.865</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C177">
         <v>139</v>
       </c>
       <c r="D177">
+        <v>2017</v>
+      </c>
+      <c r="E177">
         <v>0.9</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>487</v>
+        <v>312</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C178">
         <v>235</v>
       </c>
       <c r="D178">
+        <v>2012</v>
+      </c>
+      <c r="E178">
         <v>1.2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C179">
         <v>153</v>
       </c>
       <c r="D179">
+        <v>2011</v>
+      </c>
+      <c r="E179">
         <v>8.0533333333333328</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>515</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C180">
         <v>19</v>
       </c>
       <c r="D180">
+        <v>2009</v>
+      </c>
+      <c r="E180">
         <v>13.62666666666667</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C181">
         <v>83</v>
       </c>
       <c r="D181">
+        <v>2011</v>
+      </c>
+      <c r="E181">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>537</v>
+        <v>110</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C182">
         <v>108</v>
       </c>
       <c r="D182">
+        <v>2004</v>
+      </c>
+      <c r="E182">
         <v>6.413333333333334</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>224</v>
+        <v>641</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C183">
         <v>229</v>
       </c>
       <c r="D183">
+        <v>2007</v>
+      </c>
+      <c r="E183">
         <v>5.65</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>274</v>
+        <v>482</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C184">
         <v>9</v>
       </c>
       <c r="D184">
+        <v>2017</v>
+      </c>
+      <c r="E184">
         <v>6.7933333333333339</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>524</v>
+        <v>418</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C185">
         <v>236</v>
       </c>
       <c r="D185">
+        <v>2019</v>
+      </c>
+      <c r="E185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C186">
         <v>134</v>
       </c>
       <c r="D186">
+        <v>2004</v>
+      </c>
+      <c r="E186">
         <v>2.1850000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C187">
         <v>26</v>
       </c>
       <c r="D187">
+        <v>2011</v>
+      </c>
+      <c r="E187">
         <v>3.54</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>490</v>
+        <v>112</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C188">
         <v>214</v>
       </c>
       <c r="D188">
+        <v>2004</v>
+      </c>
+      <c r="E188">
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C189">
         <v>210</v>
       </c>
       <c r="D189">
+        <v>2007</v>
+      </c>
+      <c r="E189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>625</v>
+        <v>577</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C190">
         <v>42</v>
       </c>
       <c r="D190">
+        <v>2014</v>
+      </c>
+      <c r="E190">
         <v>12.66</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>543</v>
+        <v>485</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C191">
         <v>154</v>
       </c>
       <c r="D191">
+        <v>2016</v>
+      </c>
+      <c r="E191">
         <v>0.65</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>613</v>
+        <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C192">
         <v>84</v>
       </c>
       <c r="D192">
+        <v>2010</v>
+      </c>
+      <c r="E192">
         <v>6.2666666666666657</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>641</v>
+        <v>406</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C193">
         <v>244</v>
       </c>
       <c r="D193">
+        <v>2012</v>
+      </c>
+      <c r="E193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>568</v>
+        <v>212</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C194">
         <v>36</v>
       </c>
       <c r="D194">
+        <v>2008</v>
+      </c>
+      <c r="E194">
         <v>6.0166666666666666</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C195">
         <v>102</v>
       </c>
       <c r="D195">
+        <v>2013</v>
+      </c>
+      <c r="E195">
         <v>3.52</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>579</v>
+        <v>178</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C196">
         <v>22</v>
       </c>
       <c r="D196">
+        <v>2016</v>
+      </c>
+      <c r="E196">
         <v>6.5766666666666653</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
+        <v>2012</v>
+      </c>
+      <c r="E197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C198">
         <v>86</v>
       </c>
       <c r="D198">
+        <v>2014</v>
+      </c>
+      <c r="E198">
         <v>4.1099999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>231</v>
+        <v>565</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C199">
         <v>128</v>
       </c>
       <c r="D199">
+        <v>2017</v>
+      </c>
+      <c r="E199">
         <v>1.58</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C200">
         <v>174</v>
       </c>
       <c r="D200">
+        <v>2008</v>
+      </c>
+      <c r="E200">
         <v>7.4666666666666659</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C201">
         <v>117</v>
       </c>
       <c r="D201">
+        <v>2017</v>
+      </c>
+      <c r="E201">
         <v>5.2233333333333336</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>577</v>
+        <v>483</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C202">
         <v>62</v>
       </c>
       <c r="D202">
+        <v>2017</v>
+      </c>
+      <c r="E202">
         <v>14.143333333333331</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>509</v>
+        <v>596</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C203">
         <v>6</v>
       </c>
       <c r="D203">
+        <v>2011</v>
+      </c>
+      <c r="E203">
         <v>18.49666666666667</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C204">
         <v>238</v>
       </c>
       <c r="D204">
+        <v>2012</v>
+      </c>
+      <c r="E204">
         <v>2.82</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>573</v>
+        <v>502</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C205">
         <v>168</v>
       </c>
       <c r="D205">
+        <v>2012</v>
+      </c>
+      <c r="E205">
         <v>5.27</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>618</v>
+        <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C206">
         <v>5</v>
       </c>
       <c r="D206">
+        <v>2012</v>
+      </c>
+      <c r="E206">
         <v>15.01</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C207">
         <v>186</v>
       </c>
       <c r="D207">
+        <v>2013</v>
+      </c>
+      <c r="E207">
         <v>3.57</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>536</v>
+        <v>231</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C208">
         <v>143</v>
       </c>
       <c r="D208">
+        <v>2003</v>
+      </c>
+      <c r="E208">
         <v>4.6733333333333329</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>645</v>
+        <v>140</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C209">
         <v>107</v>
       </c>
       <c r="D209">
+        <v>2015</v>
+      </c>
+      <c r="E209">
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>238</v>
+        <v>588</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C210">
         <v>34</v>
       </c>
       <c r="D210">
+        <v>2013</v>
+      </c>
+      <c r="E210">
         <v>6.8233333333333333</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>55</v>
+        <v>490</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C211">
         <v>184</v>
       </c>
       <c r="D211">
+        <v>2015</v>
+      </c>
+      <c r="E211">
         <v>1.49</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C212">
         <v>132</v>
       </c>
       <c r="D212">
+        <v>2011</v>
+      </c>
+      <c r="E212">
         <v>3.18</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>566</v>
+        <v>460</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C213">
         <v>62</v>
       </c>
       <c r="D213">
+        <v>2004</v>
+      </c>
+      <c r="E213">
         <v>5.4333333333333336</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>631</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C214">
         <v>174</v>
       </c>
       <c r="D214">
+        <v>2019</v>
+      </c>
+      <c r="E214">
         <v>4.8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C215">
         <v>76</v>
       </c>
       <c r="D215">
+        <v>2013</v>
+      </c>
+      <c r="E215">
         <v>16.09333333333333</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C216">
         <v>128</v>
       </c>
       <c r="D216">
+        <v>2008</v>
+      </c>
+      <c r="E216">
         <v>4.24</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C217">
         <v>221</v>
       </c>
       <c r="D217">
+        <v>2003</v>
+      </c>
+      <c r="E217">
         <v>2.4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C218">
         <v>175</v>
       </c>
       <c r="D218">
+        <v>2015</v>
+      </c>
+      <c r="E218">
         <v>3.37</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>451</v>
+        <v>171</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C219">
         <v>103</v>
       </c>
       <c r="D219">
+        <v>2018</v>
+      </c>
+      <c r="E219">
         <v>9.02</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>168</v>
+        <v>627</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C220">
         <v>65</v>
       </c>
       <c r="D220">
+        <v>2003</v>
+      </c>
+      <c r="E220">
         <v>5.4266666666666667</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C221">
         <v>28</v>
       </c>
       <c r="D221">
+        <v>2014</v>
+      </c>
+      <c r="E221">
         <v>13.455</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C222">
         <v>206</v>
       </c>
       <c r="D222">
+        <v>2019</v>
+      </c>
+      <c r="E222">
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>639</v>
+        <v>196</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C223">
         <v>20</v>
       </c>
       <c r="D223">
+        <v>2012</v>
+      </c>
+      <c r="E223">
         <v>12.03</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>374</v>
+        <v>93</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C224">
         <v>136</v>
       </c>
       <c r="D224">
+        <v>2008</v>
+      </c>
+      <c r="E224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>417</v>
+        <v>246</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C225">
         <v>30</v>
       </c>
       <c r="D225">
+        <v>2009</v>
+      </c>
+      <c r="E225">
         <v>15.34</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C226">
         <v>96</v>
       </c>
       <c r="D226">
+        <v>2017</v>
+      </c>
+      <c r="E226">
         <v>12.553333333333329</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>565</v>
+        <v>194</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C227">
         <v>144</v>
       </c>
       <c r="D227">
+        <v>2013</v>
+      </c>
+      <c r="E227">
         <v>8.3966666666666665</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C228">
         <v>121</v>
       </c>
       <c r="D228">
+        <v>2012</v>
+      </c>
+      <c r="E228">
         <v>3.0333333333333332</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C229">
         <v>74</v>
       </c>
       <c r="D229">
+        <v>2003</v>
+      </c>
+      <c r="E229">
         <v>7.63</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C230">
         <v>224</v>
       </c>
       <c r="D230">
+        <v>2013</v>
+      </c>
+      <c r="E230">
         <v>1.4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>137</v>
+        <v>578</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C231">
         <v>123</v>
       </c>
       <c r="D231">
+        <v>2014</v>
+      </c>
+      <c r="E231">
         <v>1.38</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>570</v>
+        <v>414</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C232">
         <v>255</v>
       </c>
       <c r="D232">
+        <v>2003</v>
+      </c>
+      <c r="E232">
         <v>2.8866666666666672</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>398</v>
+        <v>183</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C233">
         <v>7</v>
       </c>
       <c r="D233">
+        <v>2015</v>
+      </c>
+      <c r="E233">
         <v>6.125</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>87</v>
+        <v>594</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C234">
         <v>107</v>
       </c>
       <c r="D234">
+        <v>2011</v>
+      </c>
+      <c r="E234">
         <v>5.09</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C235">
         <v>206</v>
       </c>
       <c r="D235">
+        <v>2010</v>
+      </c>
+      <c r="E235">
         <v>3.726666666666667</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C236">
         <v>23</v>
       </c>
       <c r="D236">
+        <v>2016</v>
+      </c>
+      <c r="E236">
         <v>3.0533333333333328</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>455</v>
+        <v>251</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C237">
         <v>3</v>
       </c>
       <c r="D237">
+        <v>2004</v>
+      </c>
+      <c r="E237">
         <v>15.54666666666667</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C238">
         <v>126</v>
       </c>
       <c r="D238">
+        <v>2008</v>
+      </c>
+      <c r="E238">
         <v>3.6166666666666671</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>521</v>
+        <v>403</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C239">
         <v>206</v>
       </c>
       <c r="D239">
+        <v>2012</v>
+      </c>
+      <c r="E239">
         <v>4.335</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C240">
         <v>13</v>
       </c>
       <c r="D240">
+        <v>2004</v>
+      </c>
+      <c r="E240">
         <v>12.86</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>110</v>
+        <v>642</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C241">
         <v>172</v>
       </c>
       <c r="D241">
+        <v>2007</v>
+      </c>
+      <c r="E241">
         <v>3.5566666666666671</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C242">
         <v>79</v>
       </c>
       <c r="D242">
+        <v>2011</v>
+      </c>
+      <c r="E242">
         <v>8.0466666666666669</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C243">
         <v>86</v>
       </c>
       <c r="D243">
+        <v>2016</v>
+      </c>
+      <c r="E243">
         <v>5.0866666666666669</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C244">
         <v>53</v>
       </c>
       <c r="D244">
+        <v>2008</v>
+      </c>
+      <c r="E244">
         <v>1.74</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>123</v>
+        <v>602</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C245">
         <v>124</v>
       </c>
       <c r="D245">
+        <v>2009</v>
+      </c>
+      <c r="E245">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C246">
         <v>118</v>
       </c>
       <c r="D246">
+        <v>2017</v>
+      </c>
+      <c r="E246">
         <v>3.36</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C247">
         <v>51</v>
       </c>
       <c r="D247">
+        <v>2008</v>
+      </c>
+      <c r="E247">
         <v>2.0449999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C248">
         <v>112</v>
       </c>
       <c r="D248">
+        <v>2016</v>
+      </c>
+      <c r="E248">
         <v>8.01</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C249">
         <v>229</v>
       </c>
       <c r="D249">
+        <v>2009</v>
+      </c>
+      <c r="E249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C250">
         <v>228</v>
       </c>
       <c r="D250">
+        <v>2018</v>
+      </c>
+      <c r="E250">
         <v>4.5950000000000006</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C251">
         <v>107</v>
       </c>
       <c r="D251">
+        <v>2010</v>
+      </c>
+      <c r="E251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>47</v>
+        <v>458</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C252">
         <v>223</v>
       </c>
       <c r="D252">
+        <v>2005</v>
+      </c>
+      <c r="E252">
         <v>1.5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>472</v>
+        <v>241</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C253">
         <v>99</v>
       </c>
       <c r="D253">
+        <v>2010</v>
+      </c>
+      <c r="E253">
         <v>1.8149999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C254">
         <v>238</v>
       </c>
       <c r="D254">
+        <v>2015</v>
+      </c>
+      <c r="E254">
         <v>2.5</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C255">
         <v>95</v>
       </c>
       <c r="D255">
+        <v>2008</v>
+      </c>
+      <c r="E255">
         <v>8.3066666666666666</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C256">
         <v>39</v>
       </c>
       <c r="D256">
+        <v>2005</v>
+      </c>
+      <c r="E256">
         <v>4.5066666666666668</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>584</v>
+        <v>220</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C257">
         <v>22</v>
       </c>
       <c r="D257">
+        <v>2005</v>
+      </c>
+      <c r="E257">
         <v>9.19</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>46</v>
+        <v>625</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C258">
         <v>206</v>
       </c>
       <c r="D258">
+        <v>2004</v>
+      </c>
+      <c r="E258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>435</v>
+        <v>639</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C259">
         <v>243</v>
       </c>
       <c r="D259">
+        <v>2009</v>
+      </c>
+      <c r="E259">
         <v>1.93</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C260">
         <v>79</v>
       </c>
       <c r="D260">
+        <v>2013</v>
+      </c>
+      <c r="E260">
         <v>6.69</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>614</v>
+        <v>494</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C261">
         <v>39</v>
       </c>
       <c r="D261">
+        <v>2014</v>
+      </c>
+      <c r="E261">
         <v>7.6433333333333344</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B262" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C262">
         <v>144</v>
       </c>
       <c r="D262">
+        <v>2006</v>
+      </c>
+      <c r="E262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>357</v>
+        <v>500</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C263">
         <v>236</v>
       </c>
       <c r="D263">
+        <v>2013</v>
+      </c>
+      <c r="E263">
         <v>4.496666666666667</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C264">
         <v>174</v>
       </c>
       <c r="D264">
+        <v>2018</v>
+      </c>
+      <c r="E264">
         <v>6.57</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C265">
         <v>25</v>
       </c>
       <c r="D265">
+        <v>2019</v>
+      </c>
+      <c r="E265">
         <v>10.99</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C266">
         <v>78</v>
       </c>
       <c r="D266">
+        <v>2013</v>
+      </c>
+      <c r="E266">
         <v>4.3133333333333326</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C267">
         <v>118</v>
       </c>
       <c r="D267">
+        <v>2014</v>
+      </c>
+      <c r="E267">
         <v>15.28</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C268">
         <v>166</v>
       </c>
       <c r="D268">
+        <v>2012</v>
+      </c>
+      <c r="E268">
         <v>8.1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C269">
         <v>90</v>
       </c>
       <c r="D269">
+        <v>2006</v>
+      </c>
+      <c r="E269">
         <v>3.03</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>71</v>
+        <v>534</v>
       </c>
       <c r="B270" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C270">
         <v>56</v>
       </c>
       <c r="D270">
+        <v>2019</v>
+      </c>
+      <c r="E270">
         <v>8.11</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C271">
         <v>218</v>
       </c>
       <c r="D271">
+        <v>2014</v>
+      </c>
+      <c r="E271">
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>514</v>
+        <v>624</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C272">
         <v>15</v>
       </c>
       <c r="D272">
+        <v>2004</v>
+      </c>
+      <c r="E272">
         <v>9.0266666666666655</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>596</v>
+        <v>209</v>
       </c>
       <c r="B273" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C273">
         <v>10</v>
       </c>
       <c r="D273">
+        <v>2009</v>
+      </c>
+      <c r="E273">
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>629</v>
+        <v>390</v>
       </c>
       <c r="B274" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C274">
         <v>13</v>
       </c>
       <c r="D274">
+        <v>2012</v>
+      </c>
+      <c r="E274">
         <v>8.99</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>496</v>
+        <v>421</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C275">
         <v>81</v>
       </c>
       <c r="D275">
+        <v>2018</v>
+      </c>
+      <c r="E275">
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C276">
         <v>29</v>
       </c>
       <c r="D276">
+        <v>2004</v>
+      </c>
+      <c r="E276">
         <v>5.7733333333333334</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C277">
         <v>47</v>
       </c>
       <c r="D277">
+        <v>2016</v>
+      </c>
+      <c r="E277">
         <v>17.803333333333331</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C278">
         <v>7</v>
       </c>
       <c r="D278">
+        <v>2014</v>
+      </c>
+      <c r="E278">
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>517</v>
+        <v>371</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C279">
         <v>79</v>
       </c>
       <c r="D279">
+        <v>2008</v>
+      </c>
+      <c r="E279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C280">
         <v>206</v>
       </c>
       <c r="D280">
+        <v>2016</v>
+      </c>
+      <c r="E280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>624</v>
+        <v>444</v>
       </c>
       <c r="B281" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C281">
         <v>107</v>
       </c>
       <c r="D281">
+        <v>2009</v>
+      </c>
+      <c r="E281">
         <v>5.556</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>220</v>
+        <v>603</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C282">
         <v>84</v>
       </c>
       <c r="D282">
+        <v>2009</v>
+      </c>
+      <c r="E282">
         <v>13.64333333333334</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="B283" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C283">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D283">
-        <v>8.1229999999999993</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="E283">
+        <v>3.1850000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C284">
         <v>101</v>
       </c>
       <c r="D284">
+        <v>2010</v>
+      </c>
+      <c r="E284">
         <v>9.7859999999999996</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>494</v>
+        <v>41</v>
       </c>
       <c r="B285" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C285">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D285">
-        <v>3.1850000000000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2017</v>
+      </c>
+      <c r="E285">
+        <v>8.1229999999999993</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>124</v>
+        <v>384</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C286">
         <v>93</v>
       </c>
       <c r="D286">
+        <v>2019</v>
+      </c>
+      <c r="E286">
         <v>4.62</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>448</v>
+        <v>601</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C287">
         <v>50</v>
       </c>
       <c r="D287">
+        <v>2009</v>
+      </c>
+      <c r="E287">
         <v>6.7100000000000009</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>575</v>
+        <v>233</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C288">
         <v>83</v>
       </c>
       <c r="D288">
+        <v>2012</v>
+      </c>
+      <c r="E288">
         <v>9.8666666666666671</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="B289" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C289">
         <v>32</v>
       </c>
       <c r="D289">
+        <v>2019</v>
+      </c>
+      <c r="E289">
         <v>5.43</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C290">
         <v>71</v>
       </c>
       <c r="D290">
+        <v>2003</v>
+      </c>
+      <c r="E290">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C291">
         <v>20</v>
       </c>
       <c r="D291">
+        <v>2015</v>
+      </c>
+      <c r="E291">
         <v>7.6166666666666671</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>483</v>
+        <v>314</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C292">
         <v>122</v>
       </c>
       <c r="D292">
+        <v>2012</v>
+      </c>
+      <c r="E292">
         <v>5.23</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C293">
         <v>223</v>
       </c>
       <c r="D293">
+        <v>2013</v>
+      </c>
+      <c r="E293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C294">
         <v>239</v>
       </c>
       <c r="D294">
+        <v>2017</v>
+      </c>
+      <c r="E294">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C295">
         <v>12</v>
       </c>
       <c r="D295">
+        <v>2014</v>
+      </c>
+      <c r="E295">
         <v>21.68333333333333</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="B296" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C296">
         <v>225</v>
       </c>
       <c r="D296">
+        <v>2005</v>
+      </c>
+      <c r="E296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="B297" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C297">
         <v>59</v>
       </c>
       <c r="D297">
+        <v>2019</v>
+      </c>
+      <c r="E297">
         <v>5.73</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>369</v>
+        <v>445</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C298">
         <v>87</v>
       </c>
       <c r="D298">
+        <v>2009</v>
+      </c>
+      <c r="E298">
         <v>2.2650000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C299">
         <v>191</v>
       </c>
       <c r="D299">
+        <v>2008</v>
+      </c>
+      <c r="E299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C300">
         <v>45</v>
       </c>
       <c r="D300">
+        <v>2014</v>
+      </c>
+      <c r="E300">
         <v>4.9633333333333338</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>105</v>
+        <v>643</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C301">
         <v>80</v>
       </c>
       <c r="D301">
+        <v>2007</v>
+      </c>
+      <c r="E301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>349</v>
+        <v>604</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C302">
         <v>22</v>
       </c>
       <c r="D302">
+        <v>2009</v>
+      </c>
+      <c r="E302">
         <v>14.31666666666667</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>373</v>
+        <v>572</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C303">
         <v>117</v>
       </c>
       <c r="D303">
+        <v>2016</v>
+      </c>
+      <c r="E303">
         <v>1.366666666666666</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>298</v>
+        <v>51</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C304">
         <v>29</v>
       </c>
       <c r="D304">
+        <v>2015</v>
+      </c>
+      <c r="E304">
         <v>4.57</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C305">
         <v>209</v>
       </c>
       <c r="D305">
+        <v>2014</v>
+      </c>
+      <c r="E305">
         <v>7.7949999999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>519</v>
+        <v>632</v>
       </c>
       <c r="B306" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C306">
         <v>128</v>
       </c>
       <c r="D306">
+        <v>2013</v>
+      </c>
+      <c r="E306">
         <v>2.686666666666667</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>306</v>
+        <v>597</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C307">
         <v>64</v>
       </c>
       <c r="D307">
+        <v>2011</v>
+      </c>
+      <c r="E307">
         <v>12.67333333333333</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>628</v>
+        <v>54</v>
       </c>
       <c r="B308" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C308">
         <v>139</v>
       </c>
       <c r="D308">
+        <v>2015</v>
+      </c>
+      <c r="E308">
         <v>3.45</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>606</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C309">
         <v>172</v>
       </c>
       <c r="D309">
+        <v>2016</v>
+      </c>
+      <c r="E309">
         <v>4.746666666666667</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>637</v>
+        <v>223</v>
       </c>
       <c r="B310" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C310">
         <v>31</v>
       </c>
       <c r="D310">
+        <v>2004</v>
+      </c>
+      <c r="E310">
         <v>3.07</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="B311" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C311">
         <v>187</v>
       </c>
       <c r="D311">
+        <v>2018</v>
+      </c>
+      <c r="E311">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>393</v>
+        <v>620</v>
       </c>
       <c r="B312" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C312">
         <v>35</v>
       </c>
       <c r="D312">
+        <v>2005</v>
+      </c>
+      <c r="E312">
         <v>9.8066666666666666</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>603</v>
+        <v>463</v>
       </c>
       <c r="B313" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C313">
         <v>9</v>
       </c>
       <c r="D313">
+        <v>2004</v>
+      </c>
+      <c r="E313">
         <v>6.0233333333333334</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>212</v>
+        <v>569</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C314">
         <v>114</v>
       </c>
       <c r="D314">
+        <v>2016</v>
+      </c>
+      <c r="E314">
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>611</v>
+        <v>358</v>
       </c>
       <c r="B315" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C315">
         <v>240</v>
       </c>
       <c r="D315">
+        <v>2018</v>
+      </c>
+      <c r="E315">
         <v>3.61</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>136</v>
+        <v>599</v>
       </c>
       <c r="B316" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C316">
         <v>159</v>
       </c>
       <c r="D316">
+        <v>2010</v>
+      </c>
+      <c r="E316">
         <v>5.5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>91</v>
+        <v>532</v>
       </c>
       <c r="B317" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C317">
         <v>126</v>
       </c>
       <c r="D317">
+        <v>2019</v>
+      </c>
+      <c r="E317">
         <v>2.25</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>409</v>
+        <v>634</v>
       </c>
       <c r="B318" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C318">
         <v>227</v>
       </c>
       <c r="D318">
+        <v>2012</v>
+      </c>
+      <c r="E318">
         <v>5.003333333333333</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C319">
         <v>185</v>
       </c>
       <c r="D319">
+        <v>2014</v>
+      </c>
+      <c r="E319">
         <v>2.97</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>312</v>
+        <v>614</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C320">
         <v>27</v>
       </c>
       <c r="D320">
+        <v>2007</v>
+      </c>
+      <c r="E320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>616</v>
+        <v>499</v>
       </c>
       <c r="B321" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C321">
         <v>41</v>
       </c>
       <c r="D321">
+        <v>2013</v>
+      </c>
+      <c r="E321">
         <v>9.2533333333333339</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="B322" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C322">
         <v>27</v>
       </c>
       <c r="D322">
+        <v>2005</v>
+      </c>
+      <c r="E322">
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B323" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C323">
         <v>55</v>
       </c>
       <c r="D323">
+        <v>2005</v>
+      </c>
+      <c r="E323">
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>66</v>
+        <v>332</v>
       </c>
       <c r="B324" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C324">
         <v>169</v>
       </c>
       <c r="D324">
+        <v>2007</v>
+      </c>
+      <c r="E324">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>609</v>
+        <v>224</v>
       </c>
       <c r="B325" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C325">
         <v>7</v>
       </c>
       <c r="D325">
+        <v>2004</v>
+      </c>
+      <c r="E325">
         <v>13.87</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>581</v>
+        <v>374</v>
       </c>
       <c r="B326" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C326">
         <v>136</v>
       </c>
       <c r="D326">
+        <v>2005</v>
+      </c>
+      <c r="E326">
         <v>6.6000000000000014</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>201</v>
+        <v>592</v>
       </c>
       <c r="B327" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C327">
         <v>63</v>
       </c>
       <c r="D327">
+        <v>2012</v>
+      </c>
+      <c r="E327">
         <v>8.3133333333333344</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>26</v>
+        <v>562</v>
       </c>
       <c r="B328" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C328">
         <v>194</v>
       </c>
       <c r="D328">
+        <v>2018</v>
+      </c>
+      <c r="E328">
         <v>4.46</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>644</v>
+        <v>198</v>
       </c>
       <c r="B329" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C329">
         <v>54</v>
       </c>
       <c r="D329">
+        <v>2012</v>
+      </c>
+      <c r="E329">
         <v>4.1266666666666669</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>529</v>
+        <v>364</v>
       </c>
       <c r="B330" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C330">
         <v>142</v>
       </c>
       <c r="D330">
+        <v>2014</v>
+      </c>
+      <c r="E330">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>610</v>
+        <v>42</v>
       </c>
       <c r="B331" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C331">
         <v>133</v>
       </c>
       <c r="D331">
+        <v>2017</v>
+      </c>
+      <c r="E331">
         <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="B332" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C332">
         <v>167</v>
       </c>
       <c r="D332">
+        <v>2011</v>
+      </c>
+      <c r="E332">
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>623</v>
+        <v>409</v>
       </c>
       <c r="B333" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C333">
         <v>118</v>
       </c>
       <c r="D333">
+        <v>2007</v>
+      </c>
+      <c r="E333">
         <v>1.87</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>390</v>
+        <v>116</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C334">
         <v>127</v>
       </c>
       <c r="D334">
+        <v>2003</v>
+      </c>
+      <c r="E334">
         <v>1.6366666666666669</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B335" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C335">
         <v>105</v>
       </c>
       <c r="D335">
+        <v>2004</v>
+      </c>
+      <c r="E335">
         <v>9.3533333333333335</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>142</v>
+        <v>575</v>
       </c>
       <c r="B336" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C336">
         <v>87</v>
       </c>
       <c r="D336">
+        <v>2015</v>
+      </c>
+      <c r="E336">
         <v>3.9266666666666659</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C337">
         <v>233</v>
       </c>
       <c r="D337">
+        <v>2009</v>
+      </c>
+      <c r="E337">
         <v>4.246666666666667</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>608</v>
+        <v>59</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C338">
         <v>4</v>
       </c>
       <c r="D338">
+        <v>2014</v>
+      </c>
+      <c r="E338">
         <v>13.246666666666661</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C339">
         <v>25</v>
       </c>
       <c r="D339">
+        <v>2006</v>
+      </c>
+      <c r="E339">
         <v>11.516666666666669</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>583</v>
+        <v>398</v>
       </c>
       <c r="B340" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C340">
         <v>208</v>
       </c>
       <c r="D340">
+        <v>2019</v>
+      </c>
+      <c r="E340">
         <v>4.51</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="B341" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C341">
         <v>106</v>
       </c>
       <c r="D341">
+        <v>2003</v>
+      </c>
+      <c r="E341">
         <v>5.8</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B342" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C342">
         <v>166</v>
       </c>
       <c r="D342">
+        <v>2017</v>
+      </c>
+      <c r="E342">
         <v>2.9</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>385</v>
+        <v>615</v>
       </c>
       <c r="B343" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C343">
         <v>44</v>
       </c>
       <c r="D343">
+        <v>2007</v>
+      </c>
+      <c r="E343">
         <v>9.4866666666666664</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>101</v>
       </c>
       <c r="B344" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C344">
         <v>44</v>
       </c>
       <c r="D344">
+        <v>2006</v>
+      </c>
+      <c r="E344">
         <v>3.68</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>227</v>
+        <v>619</v>
       </c>
       <c r="B345" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C345">
         <v>125</v>
       </c>
       <c r="D345">
+        <v>2006</v>
+      </c>
+      <c r="E345">
         <v>3.2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>576</v>
+        <v>195</v>
       </c>
       <c r="B346" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C346">
         <v>92</v>
       </c>
       <c r="D346">
+        <v>2013</v>
+      </c>
+      <c r="E346">
         <v>5.8566666666666656</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>421</v>
+        <v>302</v>
       </c>
       <c r="B347" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C347">
         <v>146</v>
       </c>
       <c r="D347">
+        <v>2015</v>
+      </c>
+      <c r="E347">
         <v>13.68</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B348" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C348">
         <v>43</v>
       </c>
       <c r="D348">
+        <v>2012</v>
+      </c>
+      <c r="E348">
         <v>5.5949999999999998</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>599</v>
+        <v>179</v>
       </c>
       <c r="B349" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C349">
         <v>40</v>
       </c>
       <c r="D349">
+        <v>2016</v>
+      </c>
+      <c r="E349">
         <v>12.12666666666667</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>440</v>
+        <v>333</v>
       </c>
       <c r="B350" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C350">
         <v>142</v>
       </c>
       <c r="D350">
+        <v>2007</v>
+      </c>
+      <c r="E350">
         <v>8.81</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>106</v>
+        <v>609</v>
       </c>
       <c r="B351" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C351">
         <v>224</v>
       </c>
       <c r="D351">
+        <v>2008</v>
+      </c>
+      <c r="E351">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="B352" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C352">
+        <v>51</v>
+      </c>
+      <c r="D352">
+        <v>2007</v>
+      </c>
+      <c r="E352">
+        <v>9.3183333333333334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>438</v>
+      </c>
+      <c r="B353" t="s">
+        <v>354</v>
+      </c>
+      <c r="C353">
         <v>74</v>
       </c>
-      <c r="D352">
+      <c r="D353">
+        <v>2001</v>
+      </c>
+      <c r="E353">
         <v>9.3183333333333334</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
-        <v>525</v>
-      </c>
-      <c r="B353" t="s">
-        <v>352</v>
-      </c>
-      <c r="C353">
-        <v>51</v>
-      </c>
-      <c r="D353">
-        <v>9.3183333333333334</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>334</v>
+        <v>450</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C354">
         <v>234</v>
       </c>
       <c r="D354">
+        <v>2007</v>
+      </c>
+      <c r="E354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C355">
         <v>69</v>
       </c>
       <c r="D355">
+        <v>2012</v>
+      </c>
+      <c r="E355">
         <v>3.74</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C356">
         <v>92</v>
       </c>
       <c r="D356">
+        <v>2012</v>
+      </c>
+      <c r="E356">
         <v>14.33</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>151</v>
+        <v>457</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C357">
         <v>190</v>
       </c>
       <c r="D357">
+        <v>2005</v>
+      </c>
+      <c r="E357">
         <v>3.8166666666666669</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>622</v>
+        <v>402</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C358">
         <v>140</v>
       </c>
       <c r="D358">
+        <v>2016</v>
+      </c>
+      <c r="E358">
         <v>6.25</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C359">
         <v>231</v>
       </c>
       <c r="D359">
+        <v>2003</v>
+      </c>
+      <c r="E359">
         <v>2.39</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>438</v>
+        <v>315</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C360">
         <v>123</v>
       </c>
       <c r="D360">
+        <v>2011</v>
+      </c>
+      <c r="E360">
         <v>2.85</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>365</v>
+        <v>585</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C361">
         <v>161</v>
       </c>
       <c r="D361">
+        <v>2013</v>
+      </c>
+      <c r="E361">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>635</v>
+        <v>190</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C362">
         <v>8</v>
       </c>
       <c r="D362">
+        <v>2013</v>
+      </c>
+      <c r="E362">
         <v>9.43</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>314</v>
+        <v>626</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C363">
         <v>44</v>
       </c>
       <c r="D363">
+        <v>2003</v>
+      </c>
+      <c r="E363">
         <v>3.1933333333333329</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C364">
         <v>90</v>
       </c>
       <c r="D364">
+        <v>2010</v>
+      </c>
+      <c r="E364">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>619</v>
+        <v>360</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C365">
         <v>72</v>
       </c>
       <c r="D365">
+        <v>2017</v>
+      </c>
+      <c r="E365">
         <v>3.496666666666667</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C366">
         <v>9</v>
       </c>
       <c r="D366">
+        <v>2007</v>
+      </c>
+      <c r="E366">
         <v>7.0100000000000007</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>540</v>
+        <v>191</v>
       </c>
       <c r="B367" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C367">
         <v>74</v>
       </c>
       <c r="D367">
+        <v>2013</v>
+      </c>
+      <c r="E367">
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>247</v>
+        <v>443</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C368">
         <v>219</v>
       </c>
       <c r="D368">
+        <v>2010</v>
+      </c>
+      <c r="E368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>485</v>
+        <v>221</v>
       </c>
       <c r="B369" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C369">
         <v>58</v>
       </c>
       <c r="D369">
+        <v>2005</v>
+      </c>
+      <c r="E369">
         <v>2.87</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>341</v>
+        <v>526</v>
       </c>
       <c r="B370" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C370">
         <v>237</v>
       </c>
       <c r="D370">
+        <v>2019</v>
+      </c>
+      <c r="E370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C371">
         <v>76</v>
       </c>
       <c r="D371">
+        <v>2019</v>
+      </c>
+      <c r="E371">
         <v>13.71</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C372">
         <v>253</v>
       </c>
       <c r="D372">
+        <v>2009</v>
+      </c>
+      <c r="E372">
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>453</v>
+        <v>638</v>
       </c>
       <c r="B373" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C373">
         <v>44</v>
       </c>
       <c r="D373">
+        <v>2011</v>
+      </c>
+      <c r="E373">
         <v>9.17</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>219</v>
+        <v>435</v>
       </c>
       <c r="B374" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C374">
         <v>218</v>
       </c>
       <c r="D374">
+        <v>2006</v>
+      </c>
+      <c r="E374">
         <v>2.13</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C375">
         <v>58</v>
       </c>
       <c r="D375">
+        <v>2011</v>
+      </c>
+      <c r="E375">
         <v>12.573333333333331</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>335</v>
+        <v>71</v>
       </c>
       <c r="B376" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C376">
         <v>100</v>
       </c>
       <c r="D376">
+        <v>2012</v>
+      </c>
+      <c r="E376">
         <v>4.5733333333333341</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B377" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C377">
         <v>78</v>
       </c>
       <c r="D377">
+        <v>2006</v>
+      </c>
+      <c r="E377">
         <v>1.3</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>474</v>
+        <v>132</v>
       </c>
       <c r="B378" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C378">
         <v>91</v>
       </c>
       <c r="D378">
+        <v>2018</v>
+      </c>
+      <c r="E378">
         <v>6.74</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>642</v>
+        <v>361</v>
       </c>
       <c r="B379" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C379">
         <v>177</v>
       </c>
       <c r="D379">
+        <v>2017</v>
+      </c>
+      <c r="E379">
         <v>5.36</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>258</v>
+        <v>486</v>
       </c>
       <c r="B380" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C380">
         <v>163</v>
       </c>
       <c r="D380">
+        <v>2016</v>
+      </c>
+      <c r="E380">
         <v>1.895</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C381">
         <v>256</v>
       </c>
       <c r="D381">
+        <v>2018</v>
+      </c>
+      <c r="E381">
         <v>7.8550000000000004</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>181</v>
+        <v>623</v>
       </c>
       <c r="B382" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C382">
         <v>171</v>
       </c>
       <c r="D382">
+        <v>2004</v>
+      </c>
+      <c r="E382">
         <v>5.6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>183</v>
+        <v>621</v>
       </c>
       <c r="B383" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C383">
         <v>7</v>
       </c>
       <c r="D383">
+        <v>2005</v>
+      </c>
+      <c r="E383">
         <v>6.2466666666666661</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>621</v>
+        <v>47</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C384">
         <v>55</v>
       </c>
       <c r="D384">
+        <v>2016</v>
+      </c>
+      <c r="E384">
         <v>9.2466666666666661</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>615</v>
+        <v>182</v>
       </c>
       <c r="B385" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C385">
         <v>69</v>
       </c>
       <c r="D385">
+        <v>2015</v>
+      </c>
+      <c r="E385">
         <v>8.7733333333333317</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C386">
         <v>165</v>
       </c>
       <c r="D386">
+        <v>2016</v>
+      </c>
+      <c r="E386">
         <v>16.20333333333333</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>330</v>
+        <v>631</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C387">
         <v>60</v>
       </c>
       <c r="D387">
+        <v>2003</v>
+      </c>
+      <c r="E387">
         <v>4.4933333333333332</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="B388" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C388">
         <v>123</v>
       </c>
       <c r="D388">
+        <v>2015</v>
+      </c>
+      <c r="E388">
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>572</v>
+        <v>427</v>
       </c>
       <c r="B389" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C389">
         <v>82</v>
       </c>
       <c r="D389">
+        <v>2011</v>
+      </c>
+      <c r="E389">
         <v>6.335</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="B390" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C390">
         <v>226</v>
       </c>
       <c r="D390">
+        <v>2003</v>
+      </c>
+      <c r="E390">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B391" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C391">
         <v>21</v>
       </c>
       <c r="D391">
+        <v>2016</v>
+      </c>
+      <c r="E391">
         <v>12.10333333333333</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C392">
         <v>105</v>
       </c>
       <c r="D392">
+        <v>2008</v>
+      </c>
+      <c r="E392">
         <v>1.53</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="B393" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C393">
         <v>95</v>
       </c>
       <c r="D393">
+        <v>2006</v>
+      </c>
+      <c r="E393">
         <v>3.13</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="B394" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C394">
         <v>74</v>
       </c>
       <c r="D394">
+        <v>2007</v>
+      </c>
+      <c r="E394">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>647</v>
+        <v>134</v>
       </c>
       <c r="B395" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C395">
         <v>37</v>
       </c>
       <c r="D395">
+        <v>2017</v>
+      </c>
+      <c r="E395">
         <v>6.04</v>
       </c>
     </row>
